--- a/24V_150W_100kHz_CCM/24V_150W_100kHz_CCM_Parameter_Calculator.xlsx
+++ b/24V_150W_100kHz_CCM/24V_150W_100kHz_CCM_Parameter_Calculator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\Desktop\150W-12V-Flyback-Converter-in-DCM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\Desktop\150W-12V-Flyback-Converter-in-DCM\24V_150W_100kHz_CCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2480D742-2092-43D6-A59A-0C80AF380A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8442B3-D290-483C-A594-F08CAFCE3C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100kHz" sheetId="1" r:id="rId1"/>
@@ -2763,7 +2763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0073AE27-5FFD-4997-A833-CF47191DE33E}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2869,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CCBFF4-720D-4EBA-A894-2A25016A9E9F}">
   <dimension ref="A7:AJ74"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5577,6 +5577,50 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{58195D6E-58EF-430C-BABE-6889B9535670}">
+          <x14:colorSeries rgb="FF0070C0"/>
+          <x14:colorNegative rgb="FF000000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF000000"/>
+          <x14:colorFirst rgb="FF000000"/>
+          <x14:colorLast rgb="FF000000"/>
+          <x14:colorHigh rgb="FF000000"/>
+          <x14:colorLow rgb="FF000000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A49:A49</xm:f>
+              <xm:sqref>E49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A50:A50</xm:f>
+              <xm:sqref>E50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A51:A51</xm:f>
+              <xm:sqref>E51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A52:A52</xm:f>
+              <xm:sqref>E52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A53:A53</xm:f>
+              <xm:sqref>E53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A54:A54</xm:f>
+              <xm:sqref>E54</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A55:A55</xm:f>
+              <xm:sqref>E55</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A56:A56</xm:f>
+              <xm:sqref>E56</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{85896027-3454-42C8-BCD4-E7B98CDAB80D}">
           <x14:colorSeries rgb="FF0070C0"/>
           <x14:colorNegative rgb="FF000000"/>
@@ -5621,50 +5665,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{58195D6E-58EF-430C-BABE-6889B9535670}">
-          <x14:colorSeries rgb="FF0070C0"/>
-          <x14:colorNegative rgb="FF000000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF000000"/>
-          <x14:colorFirst rgb="FF000000"/>
-          <x14:colorLast rgb="FF000000"/>
-          <x14:colorHigh rgb="FF000000"/>
-          <x14:colorLow rgb="FF000000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A49:A49</xm:f>
-              <xm:sqref>E49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A50:A50</xm:f>
-              <xm:sqref>E50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A51:A51</xm:f>
-              <xm:sqref>E51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A52:A52</xm:f>
-              <xm:sqref>E52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A53:A53</xm:f>
-              <xm:sqref>E53</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A54:A54</xm:f>
-              <xm:sqref>E54</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A55:A55</xm:f>
-              <xm:sqref>E55</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A56:A56</xm:f>
-              <xm:sqref>E56</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>

--- a/24V_150W_100kHz_CCM/24V_150W_100kHz_CCM_Parameter_Calculator.xlsx
+++ b/24V_150W_100kHz_CCM/24V_150W_100kHz_CCM_Parameter_Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\Desktop\150W-12V-Flyback-Converter-in-DCM\24V_150W_100kHz_CCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8442B3-D290-483C-A594-F08CAFCE3C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2D17FF-7324-4423-9D8B-2A7DE694B7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100kHz" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="184">
   <si>
     <t>Po_max</t>
   </si>
@@ -583,6 +583,12 @@
   </si>
   <si>
     <t>AC In Irms @ Pmin</t>
+  </si>
+  <si>
+    <t>Ploss = 2.2W</t>
+  </si>
+  <si>
+    <t>3.7W</t>
   </si>
 </sst>
 </file>
@@ -2213,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2761,18 +2767,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0073AE27-5FFD-4997-A833-CF47191DE33E}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>176</v>
       </c>
@@ -2780,7 +2787,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -2788,7 +2795,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>179</v>
       </c>
@@ -2796,7 +2803,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>171</v>
       </c>
@@ -2804,15 +2811,21 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>172</v>
       </c>
       <c r="B7">
         <v>1.24</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>173</v>
       </c>
@@ -2820,7 +2833,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>174</v>
       </c>
@@ -2828,7 +2841,7 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>175</v>
       </c>
@@ -2836,7 +2849,7 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -2844,7 +2857,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -2852,7 +2865,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>181</v>
       </c>
@@ -2869,8 +2882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CCBFF4-720D-4EBA-A894-2A25016A9E9F}">
   <dimension ref="A7:AJ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="C52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4145,7 +4158,7 @@
         <v>40.964455160817366</v>
       </c>
       <c r="V49" s="8">
-        <f t="shared" ref="V49:V56" si="19">($B$29*Q49)/($B$25*F49)</f>
+        <f>($B$29*Q49)/($B$25*F49)</f>
         <v>8.9583333333333339</v>
       </c>
       <c r="W49">
@@ -4202,18 +4215,18 @@
         <v>40</v>
       </c>
       <c r="B50" s="8">
-        <f t="shared" ref="B50" si="20">A50/1000</f>
+        <f t="shared" ref="B50" si="19">A50/1000</f>
         <v>0.04</v>
       </c>
       <c r="C50" s="8">
         <v>5000</v>
       </c>
       <c r="D50" s="8">
-        <f t="shared" ref="D50" si="21">C50/2</f>
+        <f t="shared" ref="D50" si="20">C50/2</f>
         <v>2500</v>
       </c>
       <c r="E50" s="8">
-        <f t="shared" ref="E50:E56" si="22">D50*$B$15</f>
+        <f t="shared" ref="E50:E56" si="21">D50*$B$15</f>
         <v>2.8750000000000001E-2</v>
       </c>
       <c r="F50" s="8">
@@ -4221,7 +4234,7 @@
         <v>162</v>
       </c>
       <c r="G50" s="8">
-        <f t="shared" ref="G50" si="23">ROUNDUP(F50/3.26,0)</f>
+        <f t="shared" ref="G50" si="22">ROUNDUP(F50/3.26,0)</f>
         <v>50</v>
       </c>
       <c r="H50" s="8">
@@ -4253,7 +4266,7 @@
         <v>1.4081375</v>
       </c>
       <c r="O50" s="8">
-        <f t="shared" ref="O50" si="24">N50+M50</f>
+        <f t="shared" ref="O50" si="23">N50+M50</f>
         <v>1.9338958100000001</v>
       </c>
       <c r="P50" s="8">
@@ -4265,7 +4278,7 @@
         <v>4.5804420889339189E-3</v>
       </c>
       <c r="R50" s="8">
-        <f t="shared" ref="R50" si="25">Q50*1000</f>
+        <f t="shared" ref="R50" si="24">Q50*1000</f>
         <v>4.5804420889339186</v>
       </c>
       <c r="S50" s="8">
@@ -4277,11 +4290,11 @@
         <v>153.33333333333331</v>
       </c>
       <c r="U50" s="8">
-        <f t="shared" ref="U50:U56" si="26">(23.5*P50)/SQRT($B$17)</f>
+        <f t="shared" ref="U50:U56" si="25">(23.5*P50)/SQRT($B$17)</f>
         <v>31.237879618904763</v>
       </c>
       <c r="V50" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="V49:V56" si="26">($B$29*Q50)/($B$25*F50)</f>
         <v>6.75</v>
       </c>
       <c r="W50">
@@ -4349,7 +4362,7 @@
         <v>4000</v>
       </c>
       <c r="E51" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="F51" s="8">
@@ -4413,11 +4426,11 @@
         <v>192.44186046511626</v>
       </c>
       <c r="U51" s="8">
+        <f t="shared" si="25"/>
+        <v>25.325383602605065</v>
+      </c>
+      <c r="V51" s="8">
         <f t="shared" si="26"/>
-        <v>25.325383602605065</v>
-      </c>
-      <c r="V51" s="8">
-        <f t="shared" si="19"/>
         <v>5.375</v>
       </c>
       <c r="W51">
@@ -4485,7 +4498,7 @@
         <v>6000</v>
       </c>
       <c r="E52" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="F52" s="8">
@@ -4549,11 +4562,11 @@
         <v>229.99999999999994</v>
       </c>
       <c r="U52" s="8">
+        <f t="shared" si="25"/>
+        <v>21.917240259490416</v>
+      </c>
+      <c r="V52" s="8">
         <f t="shared" si="26"/>
-        <v>21.917240259490416</v>
-      </c>
-      <c r="V52" s="8">
-        <f t="shared" si="19"/>
         <v>4.5000000000000009</v>
       </c>
       <c r="W52">
@@ -4621,7 +4634,7 @@
         <v>8000</v>
       </c>
       <c r="E53" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="F53" s="8">
@@ -4685,11 +4698,11 @@
         <v>267.25806451612897</v>
       </c>
       <c r="U53" s="8">
+        <f t="shared" si="25"/>
+        <v>19.267269957416143</v>
+      </c>
+      <c r="V53" s="8">
         <f t="shared" si="26"/>
-        <v>19.267269957416143</v>
-      </c>
-      <c r="V53" s="8">
-        <f t="shared" si="19"/>
         <v>3.8750000000000004</v>
       </c>
       <c r="W53">
@@ -4757,7 +4770,7 @@
         <v>10000</v>
       </c>
       <c r="E54" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.115</v>
       </c>
       <c r="F54" s="12">
@@ -4821,11 +4834,11 @@
         <v>306.66666666666663</v>
       </c>
       <c r="U54" s="12">
+        <f t="shared" si="25"/>
+        <v>17.220508274142549</v>
+      </c>
+      <c r="V54" s="12">
         <f t="shared" si="26"/>
-        <v>17.220508274142549</v>
-      </c>
-      <c r="V54" s="12">
-        <f t="shared" si="19"/>
         <v>3.375</v>
       </c>
       <c r="W54">
@@ -4897,7 +4910,7 @@
         <v>14000</v>
       </c>
       <c r="E55" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.161</v>
       </c>
       <c r="F55" s="8">
@@ -4961,11 +4974,11 @@
         <v>345</v>
       </c>
       <c r="U55" s="8">
+        <f t="shared" si="25"/>
+        <v>16.591272198159864</v>
+      </c>
+      <c r="V55" s="8">
         <f t="shared" si="26"/>
-        <v>16.591272198159864</v>
-      </c>
-      <c r="V55" s="8">
-        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="W55">
@@ -5032,7 +5045,7 @@
         <v>175000</v>
       </c>
       <c r="E56" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.0125000000000002</v>
       </c>
       <c r="F56" s="8">
@@ -5096,11 +5109,11 @@
         <v>382.30769230769226</v>
       </c>
       <c r="U56" s="8">
+        <f t="shared" si="25"/>
+        <v>44.353815706883331</v>
+      </c>
+      <c r="V56" s="8">
         <f t="shared" si="26"/>
-        <v>44.353815706883331</v>
-      </c>
-      <c r="V56" s="8">
-        <f t="shared" si="19"/>
         <v>2.7083333333333335</v>
       </c>
       <c r="W56">
@@ -5577,6 +5590,50 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{85896027-3454-42C8-BCD4-E7B98CDAB80D}">
+          <x14:colorSeries rgb="FF0070C0"/>
+          <x14:colorNegative rgb="FF000000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF000000"/>
+          <x14:colorFirst rgb="FF000000"/>
+          <x14:colorLast rgb="FF000000"/>
+          <x14:colorHigh rgb="FF000000"/>
+          <x14:colorLow rgb="FF000000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A36:A36</xm:f>
+              <xm:sqref>E36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A37:A37</xm:f>
+              <xm:sqref>E37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A38:A38</xm:f>
+              <xm:sqref>E38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A39:A39</xm:f>
+              <xm:sqref>E39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A40:A40</xm:f>
+              <xm:sqref>E40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A41:A41</xm:f>
+              <xm:sqref>E41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A42:A42</xm:f>
+              <xm:sqref>E42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A43:A43</xm:f>
+              <xm:sqref>E43</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{58195D6E-58EF-430C-BABE-6889B9535670}">
           <x14:colorSeries rgb="FF0070C0"/>
           <x14:colorNegative rgb="FF000000"/>
@@ -5621,50 +5678,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{85896027-3454-42C8-BCD4-E7B98CDAB80D}">
-          <x14:colorSeries rgb="FF0070C0"/>
-          <x14:colorNegative rgb="FF000000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF000000"/>
-          <x14:colorFirst rgb="FF000000"/>
-          <x14:colorLast rgb="FF000000"/>
-          <x14:colorHigh rgb="FF000000"/>
-          <x14:colorLow rgb="FF000000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A36:A36</xm:f>
-              <xm:sqref>E36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A37:A37</xm:f>
-              <xm:sqref>E37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A38:A38</xm:f>
-              <xm:sqref>E38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A39:A39</xm:f>
-              <xm:sqref>E39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A40:A40</xm:f>
-              <xm:sqref>E40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A41:A41</xm:f>
-              <xm:sqref>E41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A42:A42</xm:f>
-              <xm:sqref>E42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A43:A43</xm:f>
-              <xm:sqref>E43</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -5675,7 +5688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAF048A-3679-49EC-84A3-0B01C90754DF}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/24V_150W_100kHz_CCM/24V_150W_100kHz_CCM_Parameter_Calculator.xlsx
+++ b/24V_150W_100kHz_CCM/24V_150W_100kHz_CCM_Parameter_Calculator.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\Desktop\150W-12V-Flyback-Converter-in-DCM\24V_150W_100kHz_CCM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\Desktop\150W-24V-Flyback-Converter-in-CCM\24V_150W_100kHz_CCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2D17FF-7324-4423-9D8B-2A7DE694B7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F07B1A9-5CCA-4E34-9FBB-E2E20AE4B2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100kHz" sheetId="1" r:id="rId1"/>
     <sheet name="current &amp; voltage stress" sheetId="4" r:id="rId2"/>
     <sheet name="core and copper loss - N27" sheetId="2" r:id="rId3"/>
     <sheet name="transforme adhesive tapes" sheetId="3" r:id="rId4"/>
+    <sheet name="current stress" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="211">
   <si>
     <t>Po_max</t>
   </si>
@@ -589,6 +590,87 @@
   </si>
   <si>
     <t>3.7W</t>
+  </si>
+  <si>
+    <t>Input capacitance</t>
+  </si>
+  <si>
+    <t>Is rms</t>
+  </si>
+  <si>
+    <t>Ipeak</t>
+  </si>
+  <si>
+    <t>Icout rms</t>
+  </si>
+  <si>
+    <t>Icin rms</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Cursor 1</t>
+  </si>
+  <si>
+    <t>Cursor 2</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Abs Max</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>RMS</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Resistor voltage</t>
+  </si>
+  <si>
+    <t>Switch current</t>
+  </si>
+  <si>
+    <t>MOSFET current</t>
+  </si>
+  <si>
+    <t>Diode current</t>
+  </si>
+  <si>
+    <t>Output capacitor current</t>
+  </si>
+  <si>
+    <t>Capacitor current</t>
+  </si>
+  <si>
+    <t>Input cacpacitor current</t>
+  </si>
+  <si>
+    <t>Icin rms - normmalised</t>
+  </si>
+  <si>
+    <t>Is rms - normmalised</t>
+  </si>
+  <si>
+    <t>Ipeak - normmalised</t>
+  </si>
+  <si>
+    <t>Icout rms - normmalised</t>
+  </si>
+  <si>
+    <t>Vin = 230*0.9 rms</t>
+  </si>
+  <si>
+    <t>Vin = 230*0.9*sqrt(2) V peak</t>
   </si>
 </sst>
 </file>
@@ -707,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -726,6 +808,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1357,7 +1443,1565 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Normalised current stress</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> vs Input capacitance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'current stress'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Icin rms - normmalised</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'current stress'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'current stress'!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.67924063289980496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79624048502601885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86604395372254661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91295867279756082</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9461563378000607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96998162140085775</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98723004232006939</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7DC-47AA-A44D-4135FF6F9FE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'current stress'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Is rms - normmalised</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'current stress'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'current stress'!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88131727738740695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86228559663395299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85431921487057938</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84994799942984145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84721335015652965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84536561416104872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84405636122710781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B7DC-47AA-A44D-4135FF6F9FE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'current stress'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ipeak - normmalised</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'current stress'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'current stress'!$I$3:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88620736885358165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87260649226133402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86727617221385189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86442953020134217</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86266721453682138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86147559695018938</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86062411541797923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B7DC-47AA-A44D-4135FF6F9FE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1618206271"/>
+        <c:axId val="1618207519"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1618206271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Inpput capacitance - uF</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1618207519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1618207519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Normalised</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> current</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1618206271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Normalised current stress</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> vs Input capacitance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'current stress'!$G$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Icin rms - normmalised</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'current stress'!$F$67:$F$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'current stress'!$G$67:$G$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.69169284332355208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81891785915881365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88714952364947852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93066956225735431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95905669239088753</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9780977865105116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99108054654274225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D8C4-4EF3-98C7-00AC4AB02C67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'current stress'!$H$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Is rms - normmalised</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'current stress'!$F$67:$F$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'current stress'!$H$67:$H$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94942395478588504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93973625099630453</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93560611549887684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93334540975291647</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93194696036519098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93102673719295692</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93038910223896809</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D8C4-4EF3-98C7-00AC4AB02C67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'current stress'!$I$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ipeak - normmalised</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'current stress'!$F$67:$F$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'current stress'!$I$67:$I$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97005089003655021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96510744051148789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96306429179829423</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96195376769560859</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96126373330170678</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96079742099645271</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9604685764806089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D8C4-4EF3-98C7-00AC4AB02C67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1618206271"/>
+        <c:axId val="1618207519"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1618206271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Inpput capacitance - uF</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1618207519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1618207519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Normalised</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> current</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1618206271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1913,6 +3557,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1949,6 +4625,251 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>29936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1941284</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9459F1E6-F78A-43E4-B4BF-EFB308A5E6A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7760606" y="1844222"/>
+          <a:ext cx="5166178" cy="5104493"/>
+          <a:chOff x="7760606" y="1844222"/>
+          <a:chExt cx="5166178" cy="5104493"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="4" name="Chart 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342B8EC2-83C4-45AA-AF80-9F5159BCD422}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="7760606" y="1844222"/>
+          <a:ext cx="5166178" cy="5104493"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="TextBox 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C9897D5-3946-458A-9746-46BB5F086A63}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9207501" y="3964214"/>
+            <a:ext cx="2458357" cy="644071"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1100" b="1"/>
+              <a:t>Looks like from this chart, Cin = 250uF is the</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1100" b="1" baseline="0"/>
+              <a:t> best trade off solution between, Cin rms, Is peak and rms.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ" sz="1100" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>172357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1936749</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>15422</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FBB9EF9-716C-4D94-88E9-1855E19C0B65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7756071" y="13416643"/>
+          <a:ext cx="5166178" cy="5104493"/>
+          <a:chOff x="7860392" y="1363436"/>
+          <a:chExt cx="5166178" cy="5104493"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="8" name="Chart 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B0544A-24BE-411B-A799-AD07DDEB601D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="7860392" y="1363436"/>
+          <a:ext cx="5166178" cy="5104493"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C88308-1C4F-47DE-9EB8-747592718B14}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9261930" y="3320143"/>
+            <a:ext cx="2458357" cy="1163864"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1100" b="1"/>
+              <a:t>From this, the</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1100" b="1" baseline="0"/>
+              <a:t> lines intersect at C = 350uF , and C = 450uF.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-NZ" sz="1100" b="1" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1100" b="1" baseline="0"/>
+              <a:t>The average value between those value is 400uF.</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2882,7 +5803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CCBFF4-720D-4EBA-A894-2A25016A9E9F}">
   <dimension ref="A7:AJ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
@@ -4294,7 +7215,7 @@
         <v>31.237879618904763</v>
       </c>
       <c r="V50" s="8">
-        <f t="shared" ref="V49:V56" si="26">($B$29*Q50)/($B$25*F50)</f>
+        <f t="shared" ref="V50:V56" si="26">($B$29*Q50)/($B$25*F50)</f>
         <v>6.75</v>
       </c>
       <c r="W50">
@@ -5713,4 +8634,4204 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC23FCA-E224-45E5-80F2-8CA49C5C45B4}">
+  <dimension ref="A1:J200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G193" sqref="G193"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" customWidth="1"/>
+    <col min="8" max="8" width="21.81640625" customWidth="1"/>
+    <col min="9" max="9" width="24.81640625" customWidth="1"/>
+    <col min="10" max="10" width="29.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
+        <v>50</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1.9292199999999999</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1.8942099999999999</v>
+      </c>
+      <c r="D3" s="18">
+        <v>4.3806000000000003</v>
+      </c>
+      <c r="E3" s="18">
+        <v>4.1094600000000003</v>
+      </c>
+      <c r="F3" s="18">
+        <v>50</v>
+      </c>
+      <c r="G3" s="18">
+        <f t="shared" ref="G3:G10" si="0">B3/$B$10</f>
+        <v>0.67924063289980496</v>
+      </c>
+      <c r="H3" s="18">
+        <f t="shared" ref="H3:H10" si="1">C3/$C$3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="18">
+        <f t="shared" ref="I3:I10" si="2">D3/$D$3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="18">
+        <f t="shared" ref="J3:J10" si="3">E3/$E$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
+        <f>A3+100</f>
+        <v>150</v>
+      </c>
+      <c r="B4" s="18">
+        <v>2.26153</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1.6694</v>
+      </c>
+      <c r="D4" s="18">
+        <v>3.88212</v>
+      </c>
+      <c r="E4" s="18">
+        <v>3.7432400000000001</v>
+      </c>
+      <c r="F4" s="18">
+        <f>F3+100</f>
+        <v>150</v>
+      </c>
+      <c r="G4" s="18">
+        <f t="shared" si="0"/>
+        <v>0.79624048502601885</v>
+      </c>
+      <c r="H4" s="18">
+        <f t="shared" si="1"/>
+        <v>0.88131727738740695</v>
+      </c>
+      <c r="I4" s="18">
+        <f t="shared" si="2"/>
+        <v>0.88620736885358165</v>
+      </c>
+      <c r="J4" s="18">
+        <f t="shared" si="3"/>
+        <v>0.91088366841385482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
+        <f t="shared" ref="A5:A10" si="4">A4+100</f>
+        <v>250</v>
+      </c>
+      <c r="B5" s="18">
+        <v>2.4597899999999999</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1.6333500000000001</v>
+      </c>
+      <c r="D5" s="18">
+        <v>3.82254</v>
+      </c>
+      <c r="E5" s="18">
+        <v>3.68201</v>
+      </c>
+      <c r="F5" s="18">
+        <f t="shared" ref="F5:F10" si="5">F4+100</f>
+        <v>250</v>
+      </c>
+      <c r="G5" s="18">
+        <f t="shared" si="0"/>
+        <v>0.86604395372254661</v>
+      </c>
+      <c r="H5" s="18">
+        <f t="shared" si="1"/>
+        <v>0.86228559663395299</v>
+      </c>
+      <c r="I5" s="18">
+        <f t="shared" si="2"/>
+        <v>0.87260649226133402</v>
+      </c>
+      <c r="J5" s="18">
+        <f t="shared" si="3"/>
+        <v>0.89598390056114419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="18">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="B6" s="18">
+        <v>2.5930399999999998</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1.61826</v>
+      </c>
+      <c r="D6" s="18">
+        <v>3.7991899999999998</v>
+      </c>
+      <c r="E6" s="18">
+        <v>3.6561900000000001</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="G6" s="18">
+        <f t="shared" si="0"/>
+        <v>0.91295867279756082</v>
+      </c>
+      <c r="H6" s="18">
+        <f t="shared" si="1"/>
+        <v>0.85431921487057938</v>
+      </c>
+      <c r="I6" s="18">
+        <f t="shared" si="2"/>
+        <v>0.86727617221385189</v>
+      </c>
+      <c r="J6" s="18">
+        <f t="shared" si="3"/>
+        <v>0.88970083660626942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="B7" s="18">
+        <v>2.6873300000000002</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1.60998</v>
+      </c>
+      <c r="D7" s="18">
+        <v>3.7867199999999999</v>
+      </c>
+      <c r="E7" s="18">
+        <v>3.6419700000000002</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="shared" si="5"/>
+        <v>450</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" si="0"/>
+        <v>0.9461563378000607</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" si="1"/>
+        <v>0.84994799942984145</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="2"/>
+        <v>0.86442953020134217</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" si="3"/>
+        <v>0.88624052795257768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="18">
+        <f t="shared" si="4"/>
+        <v>550</v>
+      </c>
+      <c r="B8" s="18">
+        <v>2.7549999999999999</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1.6048</v>
+      </c>
+      <c r="D8" s="18">
+        <v>3.7789999999999999</v>
+      </c>
+      <c r="E8" s="18">
+        <v>3.63306</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="5"/>
+        <v>550</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="0"/>
+        <v>0.96998162140085775</v>
+      </c>
+      <c r="H8" s="18">
+        <f t="shared" si="1"/>
+        <v>0.84721335015652965</v>
+      </c>
+      <c r="I8" s="18">
+        <f t="shared" si="2"/>
+        <v>0.86266721453682138</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" si="3"/>
+        <v>0.88407235987209987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
+        <f t="shared" si="4"/>
+        <v>650</v>
+      </c>
+      <c r="B9" s="18">
+        <v>2.8039900000000002</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1.6012999999999999</v>
+      </c>
+      <c r="D9" s="18">
+        <v>3.7737799999999999</v>
+      </c>
+      <c r="E9" s="18">
+        <v>3.62703</v>
+      </c>
+      <c r="F9" s="18">
+        <f t="shared" si="5"/>
+        <v>650</v>
+      </c>
+      <c r="G9" s="18">
+        <f t="shared" si="0"/>
+        <v>0.98723004232006939</v>
+      </c>
+      <c r="H9" s="18">
+        <f t="shared" si="1"/>
+        <v>0.84536561416104872</v>
+      </c>
+      <c r="I9" s="18">
+        <f t="shared" si="2"/>
+        <v>0.86147559695018938</v>
+      </c>
+      <c r="J9" s="18">
+        <f t="shared" si="3"/>
+        <v>0.88260501379743317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="18">
+        <f t="shared" si="4"/>
+        <v>750</v>
+      </c>
+      <c r="B10" s="18">
+        <v>2.8402599999999998</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1.5988199999999999</v>
+      </c>
+      <c r="D10" s="18">
+        <v>3.7700499999999999</v>
+      </c>
+      <c r="E10" s="18">
+        <v>3.62703</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="shared" si="5"/>
+        <v>750</v>
+      </c>
+      <c r="G10" s="18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="18">
+        <f t="shared" si="1"/>
+        <v>0.84405636122710781</v>
+      </c>
+      <c r="I10" s="18">
+        <f t="shared" si="2"/>
+        <v>0.86062411541797923</v>
+      </c>
+      <c r="J10" s="18">
+        <f t="shared" si="3"/>
+        <v>0.88260501379743317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="18">
+        <v>4.1669999999999902E-2</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="18">
+        <v>8.3300000000000006E-3</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="18">
+        <v>23.977399999999999</v>
+      </c>
+      <c r="C16" s="18">
+        <v>24.002600000000001</v>
+      </c>
+      <c r="D16" s="18">
+        <v>-2.5204899999999999E-2</v>
+      </c>
+      <c r="E16" s="18">
+        <v>24.0669</v>
+      </c>
+      <c r="F16" s="18">
+        <v>23.988</v>
+      </c>
+      <c r="G16" s="18">
+        <v>23.988099999999999</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18">
+        <v>23.976700000000001</v>
+      </c>
+      <c r="C17" s="18">
+        <v>24.001999999999999</v>
+      </c>
+      <c r="D17" s="18">
+        <v>-2.5348699999999998E-2</v>
+      </c>
+      <c r="E17" s="18">
+        <v>24.0745</v>
+      </c>
+      <c r="F17" s="18">
+        <v>23.988</v>
+      </c>
+      <c r="G17" s="18">
+        <v>23.988099999999999</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18">
+        <v>23.975899999999999</v>
+      </c>
+      <c r="C18" s="18">
+        <v>24.0015</v>
+      </c>
+      <c r="D18" s="18">
+        <v>-2.5556300000000001E-2</v>
+      </c>
+      <c r="E18" s="18">
+        <v>24.085000000000001</v>
+      </c>
+      <c r="F18" s="18">
+        <v>23.988</v>
+      </c>
+      <c r="G18" s="18">
+        <v>23.988</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18">
+        <v>23.975100000000001</v>
+      </c>
+      <c r="C19" s="18">
+        <v>24.001000000000001</v>
+      </c>
+      <c r="D19" s="18">
+        <v>-2.5865800000000001E-2</v>
+      </c>
+      <c r="E19" s="18">
+        <v>24.100300000000001</v>
+      </c>
+      <c r="F19" s="18">
+        <v>23.988</v>
+      </c>
+      <c r="G19" s="18">
+        <v>23.988</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18">
+        <v>23.974399999999999</v>
+      </c>
+      <c r="C20" s="18">
+        <v>24.000800000000002</v>
+      </c>
+      <c r="D20" s="18">
+        <v>-2.6388999999999999E-2</v>
+      </c>
+      <c r="E20" s="18">
+        <v>24.124600000000001</v>
+      </c>
+      <c r="F20" s="18">
+        <v>23.9879</v>
+      </c>
+      <c r="G20" s="18">
+        <v>23.988</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18">
+        <v>23.974299999999999</v>
+      </c>
+      <c r="C21" s="18">
+        <v>24.0016</v>
+      </c>
+      <c r="D21" s="18">
+        <v>-2.7355299999999999E-2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>24.1691</v>
+      </c>
+      <c r="F21" s="18">
+        <v>23.9879</v>
+      </c>
+      <c r="G21" s="18">
+        <v>23.988</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18">
+        <v>23.9755</v>
+      </c>
+      <c r="C22" s="18">
+        <v>24.005400000000002</v>
+      </c>
+      <c r="D22" s="18">
+        <v>-2.9846999999999999E-2</v>
+      </c>
+      <c r="E22" s="18">
+        <v>24.2758</v>
+      </c>
+      <c r="F22" s="18">
+        <v>23.9877</v>
+      </c>
+      <c r="G22" s="18">
+        <v>23.988</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18">
+        <v>23.876899999999999</v>
+      </c>
+      <c r="C23" s="18">
+        <v>23.925899999999999</v>
+      </c>
+      <c r="D23" s="18">
+        <v>-4.8978000000000001E-2</v>
+      </c>
+      <c r="E23" s="18">
+        <v>25.085100000000001</v>
+      </c>
+      <c r="F23" s="18">
+        <v>23.987400000000001</v>
+      </c>
+      <c r="G23" s="18">
+        <v>23.992799999999999</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="18">
+        <v>0</v>
+      </c>
+      <c r="C25" s="18">
+        <v>2.6753300000000002</v>
+      </c>
+      <c r="D25" s="18">
+        <v>-2.6753300000000002</v>
+      </c>
+      <c r="E25" s="18">
+        <v>3.7700499999999999</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0.78812899999999997</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1.5988199999999999</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>2.67875</v>
+      </c>
+      <c r="D26" s="18">
+        <v>-2.67875</v>
+      </c>
+      <c r="E26" s="18">
+        <v>3.7737799999999999</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0.79010100000000005</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1.6012999999999999</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18">
+        <v>0</v>
+      </c>
+      <c r="C27" s="18">
+        <v>2.68357</v>
+      </c>
+      <c r="D27" s="18">
+        <v>-2.68357</v>
+      </c>
+      <c r="E27" s="18">
+        <v>3.7789999999999999</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0.79288400000000003</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1.6048</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18">
+        <v>0</v>
+      </c>
+      <c r="C28" s="18">
+        <v>2.6907199999999998</v>
+      </c>
+      <c r="D28" s="18">
+        <v>-2.6907199999999998</v>
+      </c>
+      <c r="E28" s="18">
+        <v>3.7867199999999999</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0.79700400000000005</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1.60998</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18">
+        <v>0</v>
+      </c>
+      <c r="C29" s="18">
+        <v>2.7021799999999998</v>
+      </c>
+      <c r="D29" s="18">
+        <v>-2.7021799999999998</v>
+      </c>
+      <c r="E29" s="18">
+        <v>3.7991899999999998</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0.80358600000000002</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1.61826</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18">
+        <v>0</v>
+      </c>
+      <c r="C30" s="18">
+        <v>2.72316</v>
+      </c>
+      <c r="D30" s="18">
+        <v>-2.72316</v>
+      </c>
+      <c r="E30" s="18">
+        <v>3.82254</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0.81557999999999997</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1.6333500000000001</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18">
+        <v>0</v>
+      </c>
+      <c r="C31" s="18">
+        <v>2.7732600000000001</v>
+      </c>
+      <c r="D31" s="18">
+        <v>-2.7732600000000001</v>
+      </c>
+      <c r="E31" s="18">
+        <v>3.88212</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0.84419900000000003</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1.6694</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18">
+        <v>0</v>
+      </c>
+      <c r="C32" s="18">
+        <v>3.07117</v>
+      </c>
+      <c r="D32" s="18">
+        <v>-3.07117</v>
+      </c>
+      <c r="E32" s="18">
+        <v>4.3806000000000003</v>
+      </c>
+      <c r="F32" s="18">
+        <v>1.0183</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1.8942099999999999</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="18">
+        <v>8.7938500000000008</v>
+      </c>
+      <c r="C34" s="18">
+        <v>0</v>
+      </c>
+      <c r="D34" s="18">
+        <v>8.7938500000000008</v>
+      </c>
+      <c r="E34" s="18">
+        <v>9.3257999999999992</v>
+      </c>
+      <c r="F34" s="18">
+        <v>6.2488000000000001</v>
+      </c>
+      <c r="G34" s="18">
+        <v>7.22349</v>
+      </c>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18">
+        <v>8.8027700000000006</v>
+      </c>
+      <c r="C35" s="18">
+        <v>0</v>
+      </c>
+      <c r="D35" s="18">
+        <v>8.8027700000000006</v>
+      </c>
+      <c r="E35" s="18">
+        <v>9.33474</v>
+      </c>
+      <c r="F35" s="18">
+        <v>6.2488099999999998</v>
+      </c>
+      <c r="G35" s="18">
+        <v>7.2256400000000003</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18">
+        <v>8.8153400000000008</v>
+      </c>
+      <c r="C36" s="18">
+        <v>0</v>
+      </c>
+      <c r="D36" s="18">
+        <v>8.8153400000000008</v>
+      </c>
+      <c r="E36" s="18">
+        <v>9.3472600000000003</v>
+      </c>
+      <c r="F36" s="18">
+        <v>6.2488200000000003</v>
+      </c>
+      <c r="G36" s="18">
+        <v>7.2286799999999998</v>
+      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18">
+        <v>8.8340200000000006</v>
+      </c>
+      <c r="C37" s="18">
+        <v>0</v>
+      </c>
+      <c r="D37" s="18">
+        <v>8.8340200000000006</v>
+      </c>
+      <c r="E37" s="18">
+        <v>9.3658300000000008</v>
+      </c>
+      <c r="F37" s="18">
+        <v>6.2488299999999999</v>
+      </c>
+      <c r="G37" s="18">
+        <v>7.2331799999999999</v>
+      </c>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18">
+        <v>8.8639799999999997</v>
+      </c>
+      <c r="C38" s="18">
+        <v>0</v>
+      </c>
+      <c r="D38" s="18">
+        <v>8.8639799999999997</v>
+      </c>
+      <c r="E38" s="18">
+        <v>9.3955900000000003</v>
+      </c>
+      <c r="F38" s="18">
+        <v>6.24885</v>
+      </c>
+      <c r="G38" s="18">
+        <v>7.2403700000000004</v>
+      </c>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18">
+        <v>8.9189100000000003</v>
+      </c>
+      <c r="C39" s="18">
+        <v>0</v>
+      </c>
+      <c r="D39" s="18">
+        <v>8.9189100000000003</v>
+      </c>
+      <c r="E39" s="18">
+        <v>9.4512199999999993</v>
+      </c>
+      <c r="F39" s="18">
+        <v>6.2488900000000003</v>
+      </c>
+      <c r="G39" s="18">
+        <v>7.2534999999999998</v>
+      </c>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18">
+        <v>9.0502400000000005</v>
+      </c>
+      <c r="C40" s="18">
+        <v>0</v>
+      </c>
+      <c r="D40" s="18">
+        <v>9.0502400000000005</v>
+      </c>
+      <c r="E40" s="18">
+        <v>9.5904799999999994</v>
+      </c>
+      <c r="F40" s="18">
+        <v>6.24899</v>
+      </c>
+      <c r="G40" s="18">
+        <v>7.2849199999999996</v>
+      </c>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18">
+        <v>9.8260199999999998</v>
+      </c>
+      <c r="C41" s="18">
+        <v>0</v>
+      </c>
+      <c r="D41" s="18">
+        <v>9.8260199999999998</v>
+      </c>
+      <c r="E41" s="18">
+        <v>10.7182</v>
+      </c>
+      <c r="F41" s="18">
+        <v>6.2500499999999999</v>
+      </c>
+      <c r="G41" s="18">
+        <v>7.48177</v>
+      </c>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" s="18">
+        <v>2.5497299999999998</v>
+      </c>
+      <c r="C43" s="18">
+        <v>-6.25068</v>
+      </c>
+      <c r="D43" s="18">
+        <v>8.8004099999999994</v>
+      </c>
+      <c r="E43" s="18">
+        <v>6.2656299999999998</v>
+      </c>
+      <c r="F43" s="18">
+        <v>1.91858E-3</v>
+      </c>
+      <c r="G43" s="18">
+        <v>3.6227499999999999</v>
+      </c>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18">
+        <v>2.55884</v>
+      </c>
+      <c r="C44" s="18">
+        <v>-6.2505300000000004</v>
+      </c>
+      <c r="D44" s="18">
+        <v>8.8093699999999995</v>
+      </c>
+      <c r="E44" s="18">
+        <v>6.2675999999999998</v>
+      </c>
+      <c r="F44" s="18">
+        <v>1.9272E-3</v>
+      </c>
+      <c r="G44" s="18">
+        <v>3.62703</v>
+      </c>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18">
+        <v>2.5716199999999998</v>
+      </c>
+      <c r="C45" s="18">
+        <v>-6.2503799999999998</v>
+      </c>
+      <c r="D45" s="18">
+        <v>8.8219899999999996</v>
+      </c>
+      <c r="E45" s="18">
+        <v>6.2703300000000004</v>
+      </c>
+      <c r="F45" s="18">
+        <v>1.9396299999999999E-3</v>
+      </c>
+      <c r="G45" s="18">
+        <v>3.63306</v>
+      </c>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18">
+        <v>2.5905</v>
+      </c>
+      <c r="C46" s="18">
+        <v>-6.2502500000000003</v>
+      </c>
+      <c r="D46" s="18">
+        <v>8.8407499999999999</v>
+      </c>
+      <c r="E46" s="18">
+        <v>6.2743200000000003</v>
+      </c>
+      <c r="F46" s="18">
+        <v>1.9581500000000001E-3</v>
+      </c>
+      <c r="G46" s="18">
+        <v>3.6419700000000002</v>
+      </c>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18">
+        <v>2.6206399999999999</v>
+      </c>
+      <c r="C47" s="18">
+        <v>-6.25021</v>
+      </c>
+      <c r="D47" s="18">
+        <v>8.8708500000000008</v>
+      </c>
+      <c r="E47" s="18">
+        <v>6.2806600000000001</v>
+      </c>
+      <c r="F47" s="18">
+        <v>1.9893699999999999E-3</v>
+      </c>
+      <c r="G47" s="18">
+        <v>3.6561900000000001</v>
+      </c>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18">
+        <v>2.6756099999999998</v>
+      </c>
+      <c r="C48" s="18">
+        <v>-6.2504200000000001</v>
+      </c>
+      <c r="D48" s="18">
+        <v>8.9260400000000004</v>
+      </c>
+      <c r="E48" s="18">
+        <v>6.2922399999999996</v>
+      </c>
+      <c r="F48" s="18">
+        <v>2.0470000000000002E-3</v>
+      </c>
+      <c r="G48" s="18">
+        <v>3.68201</v>
+      </c>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18">
+        <v>2.80661</v>
+      </c>
+      <c r="C49" s="18">
+        <v>-6.2514000000000003</v>
+      </c>
+      <c r="D49" s="18">
+        <v>9.0580099999999995</v>
+      </c>
+      <c r="E49" s="18">
+        <v>6.32</v>
+      </c>
+      <c r="F49" s="18">
+        <v>2.1950400000000001E-3</v>
+      </c>
+      <c r="G49" s="18">
+        <v>3.7432400000000001</v>
+      </c>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18">
+        <v>3.6080800000000002</v>
+      </c>
+      <c r="C50" s="18">
+        <v>-6.2306999999999997</v>
+      </c>
+      <c r="D50" s="18">
+        <v>9.8387799999999999</v>
+      </c>
+      <c r="E50" s="18">
+        <v>6.5306499999999996</v>
+      </c>
+      <c r="F50" s="18">
+        <v>3.3185200000000002E-3</v>
+      </c>
+      <c r="G50" s="18">
+        <v>4.1094600000000003</v>
+      </c>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="18">
+        <v>0</v>
+      </c>
+      <c r="C52" s="18">
+        <v>-2.6753300000000002</v>
+      </c>
+      <c r="D52" s="18">
+        <v>2.6753300000000002</v>
+      </c>
+      <c r="E52" s="18">
+        <v>10.7012</v>
+      </c>
+      <c r="F52" s="18">
+        <v>1.2775600000000001E-3</v>
+      </c>
+      <c r="G52" s="18">
+        <v>2.8402599999999998</v>
+      </c>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18">
+        <v>0</v>
+      </c>
+      <c r="C53" s="18">
+        <v>-2.67875</v>
+      </c>
+      <c r="D53" s="18">
+        <v>2.67875</v>
+      </c>
+      <c r="E53" s="18">
+        <v>10.444900000000001</v>
+      </c>
+      <c r="F53" s="18">
+        <v>1.2642199999999999E-3</v>
+      </c>
+      <c r="G53" s="18">
+        <v>2.8039900000000002</v>
+      </c>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18">
+        <v>0</v>
+      </c>
+      <c r="C54" s="18">
+        <v>-2.68357</v>
+      </c>
+      <c r="D54" s="18">
+        <v>2.68357</v>
+      </c>
+      <c r="E54" s="18">
+        <v>10.092499999999999</v>
+      </c>
+      <c r="F54" s="18">
+        <v>1.27254E-3</v>
+      </c>
+      <c r="G54" s="18">
+        <v>2.7549999999999999</v>
+      </c>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18">
+        <v>0</v>
+      </c>
+      <c r="C55" s="18">
+        <v>-2.6907199999999998</v>
+      </c>
+      <c r="D55" s="18">
+        <v>2.6907199999999998</v>
+      </c>
+      <c r="E55" s="18">
+        <v>9.5963399999999996</v>
+      </c>
+      <c r="F55" s="18">
+        <v>1.2805099999999999E-3</v>
+      </c>
+      <c r="G55" s="18">
+        <v>2.6873300000000002</v>
+      </c>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18">
+        <v>0</v>
+      </c>
+      <c r="C56" s="18">
+        <v>-2.7021799999999998</v>
+      </c>
+      <c r="D56" s="18">
+        <v>2.7021799999999998</v>
+      </c>
+      <c r="E56" s="18">
+        <v>8.8866200000000006</v>
+      </c>
+      <c r="F56" s="18">
+        <v>1.2955E-3</v>
+      </c>
+      <c r="G56" s="18">
+        <v>2.5930399999999998</v>
+      </c>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18">
+        <v>0</v>
+      </c>
+      <c r="C57" s="18">
+        <v>-2.72316</v>
+      </c>
+      <c r="D57" s="18">
+        <v>2.72316</v>
+      </c>
+      <c r="E57" s="18">
+        <v>7.8486799999999999</v>
+      </c>
+      <c r="F57" s="18">
+        <v>1.3301000000000001E-3</v>
+      </c>
+      <c r="G57" s="18">
+        <v>2.4597899999999999</v>
+      </c>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18">
+        <v>0</v>
+      </c>
+      <c r="C58" s="18">
+        <v>-2.7732600000000001</v>
+      </c>
+      <c r="D58" s="18">
+        <v>2.7732600000000001</v>
+      </c>
+      <c r="E58" s="18">
+        <v>6.2552199999999996</v>
+      </c>
+      <c r="F58" s="18">
+        <v>1.39466E-3</v>
+      </c>
+      <c r="G58" s="18">
+        <v>2.26153</v>
+      </c>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18">
+        <v>0</v>
+      </c>
+      <c r="C59" s="18">
+        <v>-3.07117</v>
+      </c>
+      <c r="D59" s="18">
+        <v>3.07117</v>
+      </c>
+      <c r="E59" s="18">
+        <v>4.2279799999999996</v>
+      </c>
+      <c r="F59" s="18">
+        <v>1.8788699999999999E-3</v>
+      </c>
+      <c r="G59" s="18">
+        <v>1.9292199999999999</v>
+      </c>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="18">
+        <v>50</v>
+      </c>
+      <c r="B67" s="18">
+        <v>1.6052599999999999</v>
+      </c>
+      <c r="C67" s="18">
+        <v>1.3801000000000001</v>
+      </c>
+      <c r="D67" s="18">
+        <v>3.7099600000000001</v>
+      </c>
+      <c r="E67" s="18">
+        <v>3.23583</v>
+      </c>
+      <c r="F67" s="18">
+        <v>50</v>
+      </c>
+      <c r="G67" s="18">
+        <f>B67/$B$74</f>
+        <v>0.69169284332355208</v>
+      </c>
+      <c r="H67" s="18">
+        <f>C67/$C$67</f>
+        <v>1</v>
+      </c>
+      <c r="I67" s="18">
+        <f>D67/$D$67</f>
+        <v>1</v>
+      </c>
+      <c r="J67" s="18">
+        <f>E67/$E$67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="18">
+        <f>A67+100</f>
+        <v>150</v>
+      </c>
+      <c r="B68" s="18">
+        <v>1.90052</v>
+      </c>
+      <c r="C68" s="18">
+        <v>1.3103</v>
+      </c>
+      <c r="D68" s="18">
+        <v>3.5988500000000001</v>
+      </c>
+      <c r="E68" s="18">
+        <v>3.1095999999999999</v>
+      </c>
+      <c r="F68" s="18">
+        <f>F67+100</f>
+        <v>150</v>
+      </c>
+      <c r="G68" s="18">
+        <f t="shared" ref="G68:G74" si="6">B68/$B$74</f>
+        <v>0.81891785915881365</v>
+      </c>
+      <c r="H68" s="18">
+        <f t="shared" ref="H68:H74" si="7">C68/$C$67</f>
+        <v>0.94942395478588504</v>
+      </c>
+      <c r="I68" s="18">
+        <f t="shared" ref="I68:I74" si="8">D68/$D$67</f>
+        <v>0.97005089003655021</v>
+      </c>
+      <c r="J68" s="18">
+        <f t="shared" ref="J68:J74" si="9">E68/$E$67</f>
+        <v>0.96098991603390782</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="18">
+        <f t="shared" ref="A69:A74" si="10">A68+100</f>
+        <v>250</v>
+      </c>
+      <c r="B69" s="18">
+        <v>2.0588700000000002</v>
+      </c>
+      <c r="C69" s="18">
+        <v>1.2969299999999999</v>
+      </c>
+      <c r="D69" s="18">
+        <v>3.5805099999999999</v>
+      </c>
+      <c r="E69" s="18">
+        <v>3.0851299999999999</v>
+      </c>
+      <c r="F69" s="18">
+        <f t="shared" ref="F69:F74" si="11">F68+100</f>
+        <v>250</v>
+      </c>
+      <c r="G69" s="18">
+        <f t="shared" si="6"/>
+        <v>0.88714952364947852</v>
+      </c>
+      <c r="H69" s="18">
+        <f t="shared" si="7"/>
+        <v>0.93973625099630453</v>
+      </c>
+      <c r="I69" s="18">
+        <f t="shared" si="8"/>
+        <v>0.96510744051148789</v>
+      </c>
+      <c r="J69" s="18">
+        <f t="shared" si="9"/>
+        <v>0.95342771406408866</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="18">
+        <f t="shared" si="10"/>
+        <v>350</v>
+      </c>
+      <c r="B70" s="18">
+        <v>2.1598700000000002</v>
+      </c>
+      <c r="C70" s="18">
+        <v>1.2912300000000001</v>
+      </c>
+      <c r="D70" s="18">
+        <v>3.5729299999999999</v>
+      </c>
+      <c r="E70" s="18">
+        <v>3.0746699999999998</v>
+      </c>
+      <c r="F70" s="18">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+      <c r="G70" s="18">
+        <f t="shared" si="6"/>
+        <v>0.93066956225735431</v>
+      </c>
+      <c r="H70" s="18">
+        <f t="shared" si="7"/>
+        <v>0.93560611549887684</v>
+      </c>
+      <c r="I70" s="18">
+        <f t="shared" si="8"/>
+        <v>0.96306429179829423</v>
+      </c>
+      <c r="J70" s="18">
+        <f t="shared" si="9"/>
+        <v>0.95019515858373271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="18">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
+      <c r="B71" s="18">
+        <v>2.2257500000000001</v>
+      </c>
+      <c r="C71" s="18">
+        <v>1.2881100000000001</v>
+      </c>
+      <c r="D71" s="18">
+        <v>3.56881</v>
+      </c>
+      <c r="E71" s="18">
+        <v>3.06894</v>
+      </c>
+      <c r="F71" s="18">
+        <f t="shared" si="11"/>
+        <v>450</v>
+      </c>
+      <c r="G71" s="18">
+        <f t="shared" si="6"/>
+        <v>0.95905669239088753</v>
+      </c>
+      <c r="H71" s="18">
+        <f t="shared" si="7"/>
+        <v>0.93334540975291647</v>
+      </c>
+      <c r="I71" s="18">
+        <f t="shared" si="8"/>
+        <v>0.96195376769560859</v>
+      </c>
+      <c r="J71" s="18">
+        <f t="shared" si="9"/>
+        <v>0.94842436098311722</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="18">
+        <f t="shared" si="10"/>
+        <v>550</v>
+      </c>
+      <c r="B72" s="18">
+        <v>2.2699400000000001</v>
+      </c>
+      <c r="C72" s="18">
+        <v>1.2861800000000001</v>
+      </c>
+      <c r="D72" s="18">
+        <v>3.5662500000000001</v>
+      </c>
+      <c r="E72" s="18">
+        <v>3.0653999999999999</v>
+      </c>
+      <c r="F72" s="18">
+        <f t="shared" si="11"/>
+        <v>550</v>
+      </c>
+      <c r="G72" s="18">
+        <f t="shared" si="6"/>
+        <v>0.9780977865105116</v>
+      </c>
+      <c r="H72" s="18">
+        <f t="shared" si="7"/>
+        <v>0.93194696036519098</v>
+      </c>
+      <c r="I72" s="18">
+        <f t="shared" si="8"/>
+        <v>0.96126373330170678</v>
+      </c>
+      <c r="J72" s="18">
+        <f t="shared" si="9"/>
+        <v>0.94733036037121854</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="18">
+        <f t="shared" si="10"/>
+        <v>650</v>
+      </c>
+      <c r="B73" s="18">
+        <v>2.3000699999999998</v>
+      </c>
+      <c r="C73" s="18">
+        <v>1.28491</v>
+      </c>
+      <c r="D73" s="18">
+        <v>3.5645199999999999</v>
+      </c>
+      <c r="E73" s="18">
+        <v>3.0630700000000002</v>
+      </c>
+      <c r="F73" s="18">
+        <f t="shared" si="11"/>
+        <v>650</v>
+      </c>
+      <c r="G73" s="18">
+        <f t="shared" si="6"/>
+        <v>0.99108054654274225</v>
+      </c>
+      <c r="H73" s="18">
+        <f t="shared" si="7"/>
+        <v>0.93102673719295692</v>
+      </c>
+      <c r="I73" s="18">
+        <f t="shared" si="8"/>
+        <v>0.96079742099645271</v>
+      </c>
+      <c r="J73" s="18">
+        <f t="shared" si="9"/>
+        <v>0.94661029782157902</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="18">
+        <f t="shared" si="10"/>
+        <v>750</v>
+      </c>
+      <c r="B74" s="18">
+        <v>2.32077</v>
+      </c>
+      <c r="C74" s="18">
+        <v>1.28403</v>
+      </c>
+      <c r="D74" s="18">
+        <v>3.5632999999999999</v>
+      </c>
+      <c r="E74" s="18">
+        <v>3.0614499999999998</v>
+      </c>
+      <c r="F74" s="18">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
+      <c r="G74" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H74" s="18">
+        <f t="shared" si="7"/>
+        <v>0.93038910223896809</v>
+      </c>
+      <c r="I74" s="18">
+        <f t="shared" si="8"/>
+        <v>0.9604685764806089</v>
+      </c>
+      <c r="J74" s="18">
+        <f t="shared" si="9"/>
+        <v>0.94610965347376097</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B78" s="18">
+        <v>4.1669999999999902E-2</v>
+      </c>
+      <c r="C78" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="D78" s="18">
+        <v>8.3300000000000006E-3</v>
+      </c>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B80" s="18">
+        <v>23.990500000000001</v>
+      </c>
+      <c r="C80" s="18">
+        <v>24.000699999999998</v>
+      </c>
+      <c r="D80" s="18">
+        <v>-1.01663E-2</v>
+      </c>
+      <c r="E80" s="18">
+        <v>24.026800000000001</v>
+      </c>
+      <c r="F80" s="18">
+        <v>23.990500000000001</v>
+      </c>
+      <c r="G80" s="18">
+        <v>23.990500000000001</v>
+      </c>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" s="18"/>
+      <c r="B81" s="18">
+        <v>23.990300000000001</v>
+      </c>
+      <c r="C81" s="18">
+        <v>24.000499999999999</v>
+      </c>
+      <c r="D81" s="18">
+        <v>-1.02072E-2</v>
+      </c>
+      <c r="E81" s="18">
+        <v>24.029499999999999</v>
+      </c>
+      <c r="F81" s="18">
+        <v>23.990500000000001</v>
+      </c>
+      <c r="G81" s="18">
+        <v>23.990500000000001</v>
+      </c>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82" s="18"/>
+      <c r="B82" s="18">
+        <v>23.990200000000002</v>
+      </c>
+      <c r="C82" s="18">
+        <v>24.000399999999999</v>
+      </c>
+      <c r="D82" s="18">
+        <v>-1.02696E-2</v>
+      </c>
+      <c r="E82" s="18">
+        <v>24.033200000000001</v>
+      </c>
+      <c r="F82" s="18">
+        <v>23.990500000000001</v>
+      </c>
+      <c r="G82" s="18">
+        <v>23.990500000000001</v>
+      </c>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="18"/>
+      <c r="B83" s="18">
+        <v>23.99</v>
+      </c>
+      <c r="C83" s="18">
+        <v>24.000399999999999</v>
+      </c>
+      <c r="D83" s="18">
+        <v>-1.03795E-2</v>
+      </c>
+      <c r="E83" s="18">
+        <v>24.038599999999999</v>
+      </c>
+      <c r="F83" s="18">
+        <v>23.990500000000001</v>
+      </c>
+      <c r="G83" s="18">
+        <v>23.990500000000001</v>
+      </c>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="18"/>
+      <c r="B84" s="18">
+        <v>23.99</v>
+      </c>
+      <c r="C84" s="18">
+        <v>24.000499999999999</v>
+      </c>
+      <c r="D84" s="18">
+        <v>-1.05407E-2</v>
+      </c>
+      <c r="E84" s="18">
+        <v>24.0472</v>
+      </c>
+      <c r="F84" s="18">
+        <v>23.990400000000001</v>
+      </c>
+      <c r="G84" s="18">
+        <v>23.990500000000001</v>
+      </c>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="18"/>
+      <c r="B85" s="18">
+        <v>23.990400000000001</v>
+      </c>
+      <c r="C85" s="18">
+        <v>24.001300000000001</v>
+      </c>
+      <c r="D85" s="18">
+        <v>-1.0852000000000001E-2</v>
+      </c>
+      <c r="E85" s="18">
+        <v>24.062899999999999</v>
+      </c>
+      <c r="F85" s="18">
+        <v>23.990400000000001</v>
+      </c>
+      <c r="G85" s="18">
+        <v>23.990400000000001</v>
+      </c>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" s="18"/>
+      <c r="B86" s="18">
+        <v>23.992599999999999</v>
+      </c>
+      <c r="C86" s="18">
+        <v>24.004200000000001</v>
+      </c>
+      <c r="D86" s="18">
+        <v>-1.16317E-2</v>
+      </c>
+      <c r="E86" s="18">
+        <v>24.1</v>
+      </c>
+      <c r="F86" s="18">
+        <v>23.990300000000001</v>
+      </c>
+      <c r="G86" s="18">
+        <v>23.990300000000001</v>
+      </c>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" s="18"/>
+      <c r="B87" s="18">
+        <v>24</v>
+      </c>
+      <c r="C87" s="18">
+        <v>24.016400000000001</v>
+      </c>
+      <c r="D87" s="18">
+        <v>-1.63921E-2</v>
+      </c>
+      <c r="E87" s="18">
+        <v>24.3002</v>
+      </c>
+      <c r="F87" s="18">
+        <v>23.989699999999999</v>
+      </c>
+      <c r="G87" s="18">
+        <v>23.990100000000002</v>
+      </c>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" s="18">
+        <v>0</v>
+      </c>
+      <c r="C89" s="18">
+        <v>2.3880599999999998</v>
+      </c>
+      <c r="D89" s="18">
+        <v>-2.3880599999999998</v>
+      </c>
+      <c r="E89" s="18">
+        <v>3.5632999999999999</v>
+      </c>
+      <c r="F89" s="18">
+        <v>0.54759800000000003</v>
+      </c>
+      <c r="G89" s="18">
+        <v>1.28403</v>
+      </c>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" s="18"/>
+      <c r="B90" s="18">
+        <v>0</v>
+      </c>
+      <c r="C90" s="18">
+        <v>2.3891800000000001</v>
+      </c>
+      <c r="D90" s="18">
+        <v>-2.3891800000000001</v>
+      </c>
+      <c r="E90" s="18">
+        <v>3.5645199999999999</v>
+      </c>
+      <c r="F90" s="18">
+        <v>0.54823699999999997</v>
+      </c>
+      <c r="G90" s="18">
+        <v>1.28491</v>
+      </c>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91" s="18"/>
+      <c r="B91" s="18">
+        <v>0</v>
+      </c>
+      <c r="C91" s="18">
+        <v>2.3907799999999999</v>
+      </c>
+      <c r="D91" s="18">
+        <v>-2.3907799999999999</v>
+      </c>
+      <c r="E91" s="18">
+        <v>3.5662500000000001</v>
+      </c>
+      <c r="F91" s="18">
+        <v>0.54915899999999995</v>
+      </c>
+      <c r="G91" s="18">
+        <v>1.2861800000000001</v>
+      </c>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" s="18"/>
+      <c r="B92" s="18">
+        <v>0</v>
+      </c>
+      <c r="C92" s="18">
+        <v>2.3931900000000002</v>
+      </c>
+      <c r="D92" s="18">
+        <v>-2.3931900000000002</v>
+      </c>
+      <c r="E92" s="18">
+        <v>3.56881</v>
+      </c>
+      <c r="F92" s="18">
+        <v>0.55055600000000005</v>
+      </c>
+      <c r="G92" s="18">
+        <v>1.2881100000000001</v>
+      </c>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93" s="18"/>
+      <c r="B93" s="18">
+        <v>0</v>
+      </c>
+      <c r="C93" s="18">
+        <v>2.3970699999999998</v>
+      </c>
+      <c r="D93" s="18">
+        <v>-2.3970699999999998</v>
+      </c>
+      <c r="E93" s="18">
+        <v>3.5729299999999999</v>
+      </c>
+      <c r="F93" s="18">
+        <v>0.55281999999999998</v>
+      </c>
+      <c r="G93" s="18">
+        <v>1.2912300000000001</v>
+      </c>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94" s="18"/>
+      <c r="B94" s="18">
+        <v>0</v>
+      </c>
+      <c r="C94" s="18">
+        <v>2.4041800000000002</v>
+      </c>
+      <c r="D94" s="18">
+        <v>-2.4041800000000002</v>
+      </c>
+      <c r="E94" s="18">
+        <v>3.5805099999999999</v>
+      </c>
+      <c r="F94" s="18">
+        <v>0.55696299999999999</v>
+      </c>
+      <c r="G94" s="18">
+        <v>1.2969299999999999</v>
+      </c>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95" s="18"/>
+      <c r="B95" s="18">
+        <v>0</v>
+      </c>
+      <c r="C95" s="18">
+        <v>2.4208699999999999</v>
+      </c>
+      <c r="D95" s="18">
+        <v>-2.4208699999999999</v>
+      </c>
+      <c r="E95" s="18">
+        <v>3.5988500000000001</v>
+      </c>
+      <c r="F95" s="18">
+        <v>0.56669199999999997</v>
+      </c>
+      <c r="G95" s="18">
+        <v>1.3103</v>
+      </c>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A96" s="18"/>
+      <c r="B96" s="18">
+        <v>0</v>
+      </c>
+      <c r="C96" s="18">
+        <v>2.5066999999999999</v>
+      </c>
+      <c r="D96" s="18">
+        <v>-2.5066999999999999</v>
+      </c>
+      <c r="E96" s="18">
+        <v>3.7099600000000001</v>
+      </c>
+      <c r="F96" s="18">
+        <v>0.61759699999999995</v>
+      </c>
+      <c r="G96" s="18">
+        <v>1.3801000000000001</v>
+      </c>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" s="18">
+        <v>8.0429099999999991</v>
+      </c>
+      <c r="C98" s="18">
+        <v>0</v>
+      </c>
+      <c r="D98" s="18">
+        <v>8.0429099999999991</v>
+      </c>
+      <c r="E98" s="18">
+        <v>8.7955900000000007</v>
+      </c>
+      <c r="F98" s="18">
+        <v>6.2485600000000003</v>
+      </c>
+      <c r="G98" s="18">
+        <v>6.9585800000000004</v>
+      </c>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" s="18"/>
+      <c r="B99" s="18">
+        <v>8.0458300000000005</v>
+      </c>
+      <c r="C99" s="18">
+        <v>0</v>
+      </c>
+      <c r="D99" s="18">
+        <v>8.0458300000000005</v>
+      </c>
+      <c r="E99" s="18">
+        <v>8.7985900000000008</v>
+      </c>
+      <c r="F99" s="18">
+        <v>6.2485600000000003</v>
+      </c>
+      <c r="G99" s="18">
+        <v>6.9592900000000002</v>
+      </c>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" s="18"/>
+      <c r="B100" s="18">
+        <v>8.0500100000000003</v>
+      </c>
+      <c r="C100" s="18">
+        <v>0</v>
+      </c>
+      <c r="D100" s="18">
+        <v>8.0500100000000003</v>
+      </c>
+      <c r="E100" s="18">
+        <v>8.80274</v>
+      </c>
+      <c r="F100" s="18">
+        <v>6.2485600000000003</v>
+      </c>
+      <c r="G100" s="18">
+        <v>6.9603200000000003</v>
+      </c>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A101" s="18"/>
+      <c r="B101" s="18">
+        <v>8.0562900000000006</v>
+      </c>
+      <c r="C101" s="18">
+        <v>0</v>
+      </c>
+      <c r="D101" s="18">
+        <v>8.0562900000000006</v>
+      </c>
+      <c r="E101" s="18">
+        <v>8.8089399999999998</v>
+      </c>
+      <c r="F101" s="18">
+        <v>6.2485600000000003</v>
+      </c>
+      <c r="G101" s="18">
+        <v>6.9618799999999998</v>
+      </c>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A102" s="18"/>
+      <c r="B102" s="18">
+        <v>8.0664800000000003</v>
+      </c>
+      <c r="C102" s="18">
+        <v>0</v>
+      </c>
+      <c r="D102" s="18">
+        <v>8.0664800000000003</v>
+      </c>
+      <c r="E102" s="18">
+        <v>8.8188200000000005</v>
+      </c>
+      <c r="F102" s="18">
+        <v>6.2485600000000003</v>
+      </c>
+      <c r="G102" s="18">
+        <v>6.96441</v>
+      </c>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A103" s="18"/>
+      <c r="B103" s="18">
+        <v>8.0851199999999999</v>
+      </c>
+      <c r="C103" s="18">
+        <v>0</v>
+      </c>
+      <c r="D103" s="18">
+        <v>8.0851199999999999</v>
+      </c>
+      <c r="E103" s="18">
+        <v>8.8369199999999992</v>
+      </c>
+      <c r="F103" s="18">
+        <v>6.24857</v>
+      </c>
+      <c r="G103" s="18">
+        <v>6.9690500000000002</v>
+      </c>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A104" s="18"/>
+      <c r="B104" s="18">
+        <v>8.1289599999999993</v>
+      </c>
+      <c r="C104" s="18">
+        <v>0</v>
+      </c>
+      <c r="D104" s="18">
+        <v>8.1289599999999993</v>
+      </c>
+      <c r="E104" s="18">
+        <v>8.8803199999999993</v>
+      </c>
+      <c r="F104" s="18">
+        <v>6.2485799999999996</v>
+      </c>
+      <c r="G104" s="18">
+        <v>6.97994</v>
+      </c>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A105" s="18"/>
+      <c r="B105" s="18">
+        <v>8.3543500000000002</v>
+      </c>
+      <c r="C105" s="18">
+        <v>0</v>
+      </c>
+      <c r="D105" s="18">
+        <v>8.3543500000000002</v>
+      </c>
+      <c r="E105" s="18">
+        <v>9.1320099999999993</v>
+      </c>
+      <c r="F105" s="18">
+        <v>6.24871</v>
+      </c>
+      <c r="G105" s="18">
+        <v>7.0373000000000001</v>
+      </c>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A106" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A107" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B107" s="18">
+        <v>1.7953699999999999</v>
+      </c>
+      <c r="C107" s="18">
+        <v>-6.2501800000000003</v>
+      </c>
+      <c r="D107" s="18">
+        <v>8.04556</v>
+      </c>
+      <c r="E107" s="18">
+        <v>6.2553299999999998</v>
+      </c>
+      <c r="F107" s="18">
+        <v>1.0274699999999999E-3</v>
+      </c>
+      <c r="G107" s="18">
+        <v>3.0614499999999998</v>
+      </c>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A108" s="18"/>
+      <c r="B108" s="18">
+        <v>1.79834</v>
+      </c>
+      <c r="C108" s="18">
+        <v>-6.25014</v>
+      </c>
+      <c r="D108" s="18">
+        <v>8.0484899999999993</v>
+      </c>
+      <c r="E108" s="18">
+        <v>6.2560200000000004</v>
+      </c>
+      <c r="F108" s="18">
+        <v>1.02994E-3</v>
+      </c>
+      <c r="G108" s="18">
+        <v>3.0630700000000002</v>
+      </c>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="18"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A109" s="18"/>
+      <c r="B109" s="18">
+        <v>1.80257</v>
+      </c>
+      <c r="C109" s="18">
+        <v>-6.2501100000000003</v>
+      </c>
+      <c r="D109" s="18">
+        <v>8.0526800000000005</v>
+      </c>
+      <c r="E109" s="18">
+        <v>6.2569900000000001</v>
+      </c>
+      <c r="F109" s="18">
+        <v>1.03371E-3</v>
+      </c>
+      <c r="G109" s="18">
+        <v>3.0653999999999999</v>
+      </c>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="18"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A110" s="18"/>
+      <c r="B110" s="18">
+        <v>1.8089</v>
+      </c>
+      <c r="C110" s="18">
+        <v>-6.2500999999999998</v>
+      </c>
+      <c r="D110" s="18">
+        <v>8.0589999999999993</v>
+      </c>
+      <c r="E110" s="18">
+        <v>6.2584099999999996</v>
+      </c>
+      <c r="F110" s="18">
+        <v>1.0402600000000001E-3</v>
+      </c>
+      <c r="G110" s="18">
+        <v>3.06894</v>
+      </c>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="18"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A111" s="18"/>
+      <c r="B111" s="18">
+        <v>1.81908</v>
+      </c>
+      <c r="C111" s="18">
+        <v>-6.25014</v>
+      </c>
+      <c r="D111" s="18">
+        <v>8.0692199999999996</v>
+      </c>
+      <c r="E111" s="18">
+        <v>6.26065</v>
+      </c>
+      <c r="F111" s="18">
+        <v>1.0499299999999999E-3</v>
+      </c>
+      <c r="G111" s="18">
+        <v>3.0746699999999998</v>
+      </c>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="18"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A112" s="18"/>
+      <c r="B112" s="18">
+        <v>1.83762</v>
+      </c>
+      <c r="C112" s="18">
+        <v>-6.2503299999999999</v>
+      </c>
+      <c r="D112" s="18">
+        <v>8.0879499999999993</v>
+      </c>
+      <c r="E112" s="18">
+        <v>6.2647300000000001</v>
+      </c>
+      <c r="F112" s="18">
+        <v>1.0685499999999999E-3</v>
+      </c>
+      <c r="G112" s="18">
+        <v>3.0851299999999999</v>
+      </c>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A113" s="18"/>
+      <c r="B113" s="18">
+        <v>1.8809</v>
+      </c>
+      <c r="C113" s="18">
+        <v>-6.2510899999999996</v>
+      </c>
+      <c r="D113" s="18">
+        <v>8.1319900000000001</v>
+      </c>
+      <c r="E113" s="18">
+        <v>6.2743799999999998</v>
+      </c>
+      <c r="F113" s="18">
+        <v>1.1150299999999999E-3</v>
+      </c>
+      <c r="G113" s="18">
+        <v>3.1095999999999999</v>
+      </c>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="18"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A114" s="18"/>
+      <c r="B114" s="18">
+        <v>2.1043500000000002</v>
+      </c>
+      <c r="C114" s="18">
+        <v>-6.25427</v>
+      </c>
+      <c r="D114" s="18">
+        <v>8.3586200000000002</v>
+      </c>
+      <c r="E114" s="18">
+        <v>6.3265200000000004</v>
+      </c>
+      <c r="F114" s="18">
+        <v>1.39642E-3</v>
+      </c>
+      <c r="G114" s="18">
+        <v>3.23583</v>
+      </c>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A115" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A116" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B116" s="18">
+        <v>0</v>
+      </c>
+      <c r="C116" s="18">
+        <v>-2.3880599999999998</v>
+      </c>
+      <c r="D116" s="18">
+        <v>2.3880599999999998</v>
+      </c>
+      <c r="E116" s="18">
+        <v>9.8895700000000009</v>
+      </c>
+      <c r="F116" s="18">
+        <v>9.0334699999999998E-4</v>
+      </c>
+      <c r="G116" s="18">
+        <v>2.32077</v>
+      </c>
+      <c r="H116" s="18"/>
+      <c r="I116" s="18"/>
+      <c r="J116" s="18"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A117" s="18"/>
+      <c r="B117" s="18">
+        <v>0</v>
+      </c>
+      <c r="C117" s="18">
+        <v>-2.3891800000000001</v>
+      </c>
+      <c r="D117" s="18">
+        <v>2.3891800000000001</v>
+      </c>
+      <c r="E117" s="18">
+        <v>9.7256</v>
+      </c>
+      <c r="F117" s="18">
+        <v>8.7402200000000002E-4</v>
+      </c>
+      <c r="G117" s="18">
+        <v>2.3000699999999998</v>
+      </c>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="18"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A118" s="18"/>
+      <c r="B118" s="18">
+        <v>0</v>
+      </c>
+      <c r="C118" s="18">
+        <v>-2.3907799999999999</v>
+      </c>
+      <c r="D118" s="18">
+        <v>2.3907799999999999</v>
+      </c>
+      <c r="E118" s="18">
+        <v>9.4866799999999998</v>
+      </c>
+      <c r="F118" s="18">
+        <v>8.7643699999999998E-4</v>
+      </c>
+      <c r="G118" s="18">
+        <v>2.2699400000000001</v>
+      </c>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A119" s="18"/>
+      <c r="B119" s="18">
+        <v>0</v>
+      </c>
+      <c r="C119" s="18">
+        <v>-2.3931900000000002</v>
+      </c>
+      <c r="D119" s="18">
+        <v>2.3931900000000002</v>
+      </c>
+      <c r="E119" s="18">
+        <v>9.1308699999999998</v>
+      </c>
+      <c r="F119" s="18">
+        <v>8.7576199999999998E-4</v>
+      </c>
+      <c r="G119" s="18">
+        <v>2.2257500000000001</v>
+      </c>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="18"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A120" s="18"/>
+      <c r="B120" s="18">
+        <v>0</v>
+      </c>
+      <c r="C120" s="18">
+        <v>-2.3970699999999998</v>
+      </c>
+      <c r="D120" s="18">
+        <v>2.3970699999999998</v>
+      </c>
+      <c r="E120" s="18">
+        <v>8.5869999999999997</v>
+      </c>
+      <c r="F120" s="18">
+        <v>8.8020000000000004E-4</v>
+      </c>
+      <c r="G120" s="18">
+        <v>2.1598700000000002</v>
+      </c>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="18"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A121" s="18"/>
+      <c r="B121" s="18">
+        <v>0</v>
+      </c>
+      <c r="C121" s="18">
+        <v>-2.4041800000000002</v>
+      </c>
+      <c r="D121" s="18">
+        <v>2.4041800000000002</v>
+      </c>
+      <c r="E121" s="18">
+        <v>7.7284699999999997</v>
+      </c>
+      <c r="F121" s="18">
+        <v>8.9818600000000004E-4</v>
+      </c>
+      <c r="G121" s="18">
+        <v>2.0588700000000002</v>
+      </c>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="18"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A122" s="18"/>
+      <c r="B122" s="18">
+        <v>0</v>
+      </c>
+      <c r="C122" s="18">
+        <v>-2.4208699999999999</v>
+      </c>
+      <c r="D122" s="18">
+        <v>2.4208699999999999</v>
+      </c>
+      <c r="E122" s="18">
+        <v>6.3237199999999998</v>
+      </c>
+      <c r="F122" s="18">
+        <v>9.19702E-4</v>
+      </c>
+      <c r="G122" s="18">
+        <v>1.90052</v>
+      </c>
+      <c r="H122" s="18"/>
+      <c r="I122" s="18"/>
+      <c r="J122" s="18"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A123" s="18"/>
+      <c r="B123" s="18">
+        <v>0</v>
+      </c>
+      <c r="C123" s="18">
+        <v>-2.5066999999999999</v>
+      </c>
+      <c r="D123" s="18">
+        <v>2.5066999999999999</v>
+      </c>
+      <c r="E123" s="18">
+        <v>3.6909700000000001</v>
+      </c>
+      <c r="F123" s="18">
+        <v>1.03809E-3</v>
+      </c>
+      <c r="G123" s="18">
+        <v>1.6052599999999999</v>
+      </c>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="18"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A124" s="18"/>
+      <c r="B124" s="18">
+        <v>1.79834</v>
+      </c>
+      <c r="C124" s="18">
+        <v>-6.25014</v>
+      </c>
+      <c r="D124" s="18">
+        <v>8.0484899999999993</v>
+      </c>
+      <c r="E124" s="18">
+        <v>6.2560200000000004</v>
+      </c>
+      <c r="F124" s="18">
+        <v>1.02994E-3</v>
+      </c>
+      <c r="G124" s="18">
+        <v>3.0630700000000002</v>
+      </c>
+      <c r="H124" s="18"/>
+      <c r="I124" s="18"/>
+      <c r="J124" s="18"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A125" s="18"/>
+      <c r="B125" s="18">
+        <v>1.80257</v>
+      </c>
+      <c r="C125" s="18">
+        <v>-6.2501100000000003</v>
+      </c>
+      <c r="D125" s="18">
+        <v>8.0526800000000005</v>
+      </c>
+      <c r="E125" s="18">
+        <v>6.2569900000000001</v>
+      </c>
+      <c r="F125" s="18">
+        <v>1.03371E-3</v>
+      </c>
+      <c r="G125" s="18">
+        <v>3.0653999999999999</v>
+      </c>
+      <c r="H125" s="18"/>
+      <c r="I125" s="18"/>
+      <c r="J125" s="18"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A126" s="18"/>
+      <c r="B126" s="18">
+        <v>1.8089</v>
+      </c>
+      <c r="C126" s="18">
+        <v>-6.2500999999999998</v>
+      </c>
+      <c r="D126" s="18">
+        <v>8.0589999999999993</v>
+      </c>
+      <c r="E126" s="18">
+        <v>6.2584099999999996</v>
+      </c>
+      <c r="F126" s="18">
+        <v>1.0402600000000001E-3</v>
+      </c>
+      <c r="G126" s="18">
+        <v>3.06894</v>
+      </c>
+      <c r="H126" s="18"/>
+      <c r="I126" s="18"/>
+      <c r="J126" s="18"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A127" s="18"/>
+      <c r="B127" s="18">
+        <v>1.81908</v>
+      </c>
+      <c r="C127" s="18">
+        <v>-6.25014</v>
+      </c>
+      <c r="D127" s="18">
+        <v>8.0692199999999996</v>
+      </c>
+      <c r="E127" s="18">
+        <v>6.26065</v>
+      </c>
+      <c r="F127" s="18">
+        <v>1.0499299999999999E-3</v>
+      </c>
+      <c r="G127" s="18">
+        <v>3.0746699999999998</v>
+      </c>
+      <c r="H127" s="18"/>
+      <c r="I127" s="18"/>
+      <c r="J127" s="18"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A128" s="18"/>
+      <c r="B128" s="18">
+        <v>1.83762</v>
+      </c>
+      <c r="C128" s="18">
+        <v>-6.2503299999999999</v>
+      </c>
+      <c r="D128" s="18">
+        <v>8.0879499999999993</v>
+      </c>
+      <c r="E128" s="18">
+        <v>6.2647300000000001</v>
+      </c>
+      <c r="F128" s="18">
+        <v>1.0685499999999999E-3</v>
+      </c>
+      <c r="G128" s="18">
+        <v>3.0851299999999999</v>
+      </c>
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
+      <c r="J128" s="18"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A129" s="18"/>
+      <c r="B129" s="18">
+        <v>1.8809</v>
+      </c>
+      <c r="C129" s="18">
+        <v>-6.2510899999999996</v>
+      </c>
+      <c r="D129" s="18">
+        <v>8.1319900000000001</v>
+      </c>
+      <c r="E129" s="18">
+        <v>6.2743799999999998</v>
+      </c>
+      <c r="F129" s="18">
+        <v>1.1150299999999999E-3</v>
+      </c>
+      <c r="G129" s="18">
+        <v>3.1095999999999999</v>
+      </c>
+      <c r="H129" s="18"/>
+      <c r="I129" s="18"/>
+      <c r="J129" s="18"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A130" s="18"/>
+      <c r="B130" s="18">
+        <v>2.1043500000000002</v>
+      </c>
+      <c r="C130" s="18">
+        <v>-6.25427</v>
+      </c>
+      <c r="D130" s="18">
+        <v>8.3586200000000002</v>
+      </c>
+      <c r="E130" s="18">
+        <v>6.3265200000000004</v>
+      </c>
+      <c r="F130" s="18">
+        <v>1.39642E-3</v>
+      </c>
+      <c r="G130" s="18">
+        <v>3.23583</v>
+      </c>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
+      <c r="J130" s="18"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A131" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B131" s="18"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="18"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A132" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B132" s="18">
+        <v>0</v>
+      </c>
+      <c r="C132" s="18">
+        <v>-2.3880599999999998</v>
+      </c>
+      <c r="D132" s="18">
+        <v>2.3880599999999998</v>
+      </c>
+      <c r="E132" s="18">
+        <v>9.8895700000000009</v>
+      </c>
+      <c r="F132" s="18">
+        <v>9.0334699999999998E-4</v>
+      </c>
+      <c r="G132" s="18">
+        <v>2.32077</v>
+      </c>
+      <c r="H132" s="18"/>
+      <c r="I132" s="18"/>
+      <c r="J132" s="18"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A133" s="18"/>
+      <c r="B133" s="18">
+        <v>0</v>
+      </c>
+      <c r="C133" s="18">
+        <v>-2.3891800000000001</v>
+      </c>
+      <c r="D133" s="18">
+        <v>2.3891800000000001</v>
+      </c>
+      <c r="E133" s="18">
+        <v>9.7256</v>
+      </c>
+      <c r="F133" s="18">
+        <v>8.7402200000000002E-4</v>
+      </c>
+      <c r="G133" s="18">
+        <v>2.3000699999999998</v>
+      </c>
+      <c r="H133" s="18"/>
+      <c r="I133" s="18"/>
+      <c r="J133" s="18"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A134" s="18"/>
+      <c r="B134" s="18">
+        <v>0</v>
+      </c>
+      <c r="C134" s="18">
+        <v>-2.3907799999999999</v>
+      </c>
+      <c r="D134" s="18">
+        <v>2.3907799999999999</v>
+      </c>
+      <c r="E134" s="18">
+        <v>9.4866799999999998</v>
+      </c>
+      <c r="F134" s="18">
+        <v>8.7643699999999998E-4</v>
+      </c>
+      <c r="G134" s="18">
+        <v>2.2699400000000001</v>
+      </c>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+      <c r="J134" s="18"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A135" s="18"/>
+      <c r="B135" s="18">
+        <v>0</v>
+      </c>
+      <c r="C135" s="18">
+        <v>-2.3931900000000002</v>
+      </c>
+      <c r="D135" s="18">
+        <v>2.3931900000000002</v>
+      </c>
+      <c r="E135" s="18">
+        <v>9.1308699999999998</v>
+      </c>
+      <c r="F135" s="18">
+        <v>8.7576199999999998E-4</v>
+      </c>
+      <c r="G135" s="18">
+        <v>2.2257500000000001</v>
+      </c>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18"/>
+      <c r="J135" s="18"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A136" s="18"/>
+      <c r="B136" s="18">
+        <v>0</v>
+      </c>
+      <c r="C136" s="18">
+        <v>-2.3970699999999998</v>
+      </c>
+      <c r="D136" s="18">
+        <v>2.3970699999999998</v>
+      </c>
+      <c r="E136" s="18">
+        <v>8.5869999999999997</v>
+      </c>
+      <c r="F136" s="18">
+        <v>8.8020000000000004E-4</v>
+      </c>
+      <c r="G136" s="18">
+        <v>2.1598700000000002</v>
+      </c>
+      <c r="H136" s="18"/>
+      <c r="I136" s="18"/>
+      <c r="J136" s="18"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A137" s="18"/>
+      <c r="B137" s="18">
+        <v>0</v>
+      </c>
+      <c r="C137" s="18">
+        <v>-2.4041800000000002</v>
+      </c>
+      <c r="D137" s="18">
+        <v>2.4041800000000002</v>
+      </c>
+      <c r="E137" s="18">
+        <v>7.7284699999999997</v>
+      </c>
+      <c r="F137" s="18">
+        <v>8.9818600000000004E-4</v>
+      </c>
+      <c r="G137" s="18">
+        <v>2.0588700000000002</v>
+      </c>
+      <c r="H137" s="18"/>
+      <c r="I137" s="18"/>
+      <c r="J137" s="18"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A138" s="18"/>
+      <c r="B138" s="18">
+        <v>0</v>
+      </c>
+      <c r="C138" s="18">
+        <v>-2.4208699999999999</v>
+      </c>
+      <c r="D138" s="18">
+        <v>2.4208699999999999</v>
+      </c>
+      <c r="E138" s="18">
+        <v>6.3237199999999998</v>
+      </c>
+      <c r="F138" s="18">
+        <v>9.19702E-4</v>
+      </c>
+      <c r="G138" s="18">
+        <v>1.90052</v>
+      </c>
+      <c r="H138" s="18"/>
+      <c r="I138" s="18"/>
+      <c r="J138" s="18"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A139" s="18"/>
+      <c r="B139" s="18">
+        <v>0</v>
+      </c>
+      <c r="C139" s="18">
+        <v>-2.5066999999999999</v>
+      </c>
+      <c r="D139" s="18">
+        <v>2.5066999999999999</v>
+      </c>
+      <c r="E139" s="18">
+        <v>3.6909700000000001</v>
+      </c>
+      <c r="F139" s="18">
+        <v>1.03809E-3</v>
+      </c>
+      <c r="G139" s="18">
+        <v>1.6052599999999999</v>
+      </c>
+      <c r="H139" s="18"/>
+      <c r="I139" s="18"/>
+      <c r="J139" s="18"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>189</v>
+      </c>
+      <c r="B154" t="s">
+        <v>190</v>
+      </c>
+      <c r="C154" t="s">
+        <v>191</v>
+      </c>
+      <c r="D154" t="s">
+        <v>192</v>
+      </c>
+      <c r="E154" t="s">
+        <v>193</v>
+      </c>
+      <c r="F154" t="s">
+        <v>194</v>
+      </c>
+      <c r="G154" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>196</v>
+      </c>
+      <c r="B155">
+        <v>4.1669999999999902E-2</v>
+      </c>
+      <c r="C155">
+        <v>0.05</v>
+      </c>
+      <c r="D155">
+        <v>8.3300000000000006E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>198</v>
+      </c>
+      <c r="B157">
+        <v>23.994800000000001</v>
+      </c>
+      <c r="C157">
+        <v>23.9985</v>
+      </c>
+      <c r="D157">
+        <v>-3.7155199999999999E-3</v>
+      </c>
+      <c r="E157">
+        <v>24.016300000000001</v>
+      </c>
+      <c r="F157">
+        <v>23.992100000000001</v>
+      </c>
+      <c r="G157">
+        <v>23.992100000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B158">
+        <v>23.994700000000002</v>
+      </c>
+      <c r="C158">
+        <v>23.9984</v>
+      </c>
+      <c r="D158">
+        <v>-3.7317600000000002E-3</v>
+      </c>
+      <c r="E158">
+        <v>24.017800000000001</v>
+      </c>
+      <c r="F158">
+        <v>23.992100000000001</v>
+      </c>
+      <c r="G158">
+        <v>23.992100000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B159">
+        <v>23.994599999999998</v>
+      </c>
+      <c r="C159">
+        <v>23.9984</v>
+      </c>
+      <c r="D159">
+        <v>-3.7692099999999998E-3</v>
+      </c>
+      <c r="E159">
+        <v>24.0198</v>
+      </c>
+      <c r="F159">
+        <v>23.992100000000001</v>
+      </c>
+      <c r="G159">
+        <v>23.992100000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B160">
+        <v>23.994499999999999</v>
+      </c>
+      <c r="C160">
+        <v>23.9983</v>
+      </c>
+      <c r="D160">
+        <v>-3.8191200000000001E-3</v>
+      </c>
+      <c r="E160">
+        <v>24.0228</v>
+      </c>
+      <c r="F160">
+        <v>23.992100000000001</v>
+      </c>
+      <c r="G160">
+        <v>23.992100000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B161">
+        <v>23.994499999999999</v>
+      </c>
+      <c r="C161">
+        <v>23.9984</v>
+      </c>
+      <c r="D161">
+        <v>-3.9003000000000002E-3</v>
+      </c>
+      <c r="E161">
+        <v>24.0275</v>
+      </c>
+      <c r="F161">
+        <v>23.992000000000001</v>
+      </c>
+      <c r="G161">
+        <v>23.992000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B162">
+        <v>23.994800000000001</v>
+      </c>
+      <c r="C162">
+        <v>23.998899999999999</v>
+      </c>
+      <c r="D162">
+        <v>-4.0721400000000001E-3</v>
+      </c>
+      <c r="E162">
+        <v>24.036100000000001</v>
+      </c>
+      <c r="F162">
+        <v>23.992000000000001</v>
+      </c>
+      <c r="G162">
+        <v>23.992000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B163">
+        <v>23.996200000000002</v>
+      </c>
+      <c r="C163">
+        <v>24.000699999999998</v>
+      </c>
+      <c r="D163">
+        <v>-4.47E-3</v>
+      </c>
+      <c r="E163">
+        <v>24.0563</v>
+      </c>
+      <c r="F163">
+        <v>23.991900000000001</v>
+      </c>
+      <c r="G163">
+        <v>23.991900000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B164">
+        <v>24.005099999999999</v>
+      </c>
+      <c r="C164">
+        <v>24.011900000000001</v>
+      </c>
+      <c r="D164">
+        <v>-6.81366E-3</v>
+      </c>
+      <c r="E164">
+        <v>24.160499999999999</v>
+      </c>
+      <c r="F164">
+        <v>23.991499999999998</v>
+      </c>
+      <c r="G164">
+        <v>23.991599999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>200</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>2.2644000000000002</v>
+      </c>
+      <c r="D166">
+        <v>-2.2644000000000002</v>
+      </c>
+      <c r="E166">
+        <v>3.47899</v>
+      </c>
+      <c r="F166">
+        <v>0.44507400000000003</v>
+      </c>
+      <c r="G166">
+        <v>1.1385700000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>2.26498</v>
+      </c>
+      <c r="D167">
+        <v>-2.26498</v>
+      </c>
+      <c r="E167">
+        <v>3.4796399999999998</v>
+      </c>
+      <c r="F167">
+        <v>0.44540200000000002</v>
+      </c>
+      <c r="G167">
+        <v>1.1390499999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>2.2658299999999998</v>
+      </c>
+      <c r="D168">
+        <v>-2.2658299999999998</v>
+      </c>
+      <c r="E168">
+        <v>3.48054</v>
+      </c>
+      <c r="F168">
+        <v>0.44588299999999997</v>
+      </c>
+      <c r="G168">
+        <v>1.1397600000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>2.2671000000000001</v>
+      </c>
+      <c r="D169">
+        <v>-2.2671000000000001</v>
+      </c>
+      <c r="E169">
+        <v>3.4819</v>
+      </c>
+      <c r="F169">
+        <v>0.44662400000000002</v>
+      </c>
+      <c r="G169">
+        <v>1.1408400000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>2.26919</v>
+      </c>
+      <c r="D170">
+        <v>-2.26919</v>
+      </c>
+      <c r="E170">
+        <v>3.4840900000000001</v>
+      </c>
+      <c r="F170">
+        <v>0.44784400000000002</v>
+      </c>
+      <c r="G170">
+        <v>1.14263</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>2.2730199999999998</v>
+      </c>
+      <c r="D171">
+        <v>-2.2730199999999998</v>
+      </c>
+      <c r="E171">
+        <v>3.4881199999999999</v>
+      </c>
+      <c r="F171">
+        <v>0.45009900000000003</v>
+      </c>
+      <c r="G171">
+        <v>1.1459299999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>2.2820200000000002</v>
+      </c>
+      <c r="D172">
+        <v>-2.2820200000000002</v>
+      </c>
+      <c r="E172">
+        <v>3.49776</v>
+      </c>
+      <c r="F172">
+        <v>0.45539800000000003</v>
+      </c>
+      <c r="G172">
+        <v>1.15368</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>2.3269099999999998</v>
+      </c>
+      <c r="D173">
+        <v>-2.3269099999999998</v>
+      </c>
+      <c r="E173">
+        <v>3.5515400000000001</v>
+      </c>
+      <c r="F173">
+        <v>0.48225499999999999</v>
+      </c>
+      <c r="G173">
+        <v>1.1927399999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>201</v>
+      </c>
+      <c r="B175">
+        <v>7.7195400000000003</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>7.7195400000000003</v>
+      </c>
+      <c r="E175">
+        <v>8.5795499999999993</v>
+      </c>
+      <c r="F175">
+        <v>6.2485799999999996</v>
+      </c>
+      <c r="G175">
+        <v>6.8436700000000004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B176">
+        <v>7.7210599999999996</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>7.7210599999999996</v>
+      </c>
+      <c r="E176">
+        <v>8.5810999999999993</v>
+      </c>
+      <c r="F176">
+        <v>6.2485799999999996</v>
+      </c>
+      <c r="G176">
+        <v>6.8440399999999997</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B177">
+        <v>7.7232599999999998</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>7.7232599999999998</v>
+      </c>
+      <c r="E177">
+        <v>8.5832999999999995</v>
+      </c>
+      <c r="F177">
+        <v>6.2485799999999996</v>
+      </c>
+      <c r="G177">
+        <v>6.8445900000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B178">
+        <v>7.7265899999999998</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>7.7265899999999998</v>
+      </c>
+      <c r="E178">
+        <v>8.5866000000000007</v>
+      </c>
+      <c r="F178">
+        <v>6.2485799999999996</v>
+      </c>
+      <c r="G178">
+        <v>6.8454199999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B179">
+        <v>7.7320500000000001</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>7.7320500000000001</v>
+      </c>
+      <c r="E179">
+        <v>8.5918600000000005</v>
+      </c>
+      <c r="F179">
+        <v>6.2485799999999996</v>
+      </c>
+      <c r="G179">
+        <v>6.8468</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B180">
+        <v>7.7421100000000003</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>7.7421100000000003</v>
+      </c>
+      <c r="E180">
+        <v>8.6015899999999998</v>
+      </c>
+      <c r="F180">
+        <v>6.2485799999999996</v>
+      </c>
+      <c r="G180">
+        <v>6.8493399999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B181">
+        <v>7.7657600000000002</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>7.7657600000000002</v>
+      </c>
+      <c r="E181">
+        <v>8.6246200000000002</v>
+      </c>
+      <c r="F181">
+        <v>6.2485799999999996</v>
+      </c>
+      <c r="G181">
+        <v>6.8553199999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B182">
+        <v>7.8838999999999997</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>7.8838999999999997</v>
+      </c>
+      <c r="E182">
+        <v>8.7490000000000006</v>
+      </c>
+      <c r="F182">
+        <v>6.2486100000000002</v>
+      </c>
+      <c r="G182">
+        <v>6.8857499999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>203</v>
+      </c>
+      <c r="B184">
+        <v>1.4709000000000001</v>
+      </c>
+      <c r="C184">
+        <v>-6.2496</v>
+      </c>
+      <c r="D184">
+        <v>7.72051</v>
+      </c>
+      <c r="E184">
+        <v>6.2523799999999996</v>
+      </c>
+      <c r="F184">
+        <v>6.4516400000000005E-4</v>
+      </c>
+      <c r="G184">
+        <v>2.7905199999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B185">
+        <v>1.47245</v>
+      </c>
+      <c r="C185">
+        <v>-6.2495900000000004</v>
+      </c>
+      <c r="D185">
+        <v>7.7220300000000002</v>
+      </c>
+      <c r="E185">
+        <v>6.2527600000000003</v>
+      </c>
+      <c r="F185">
+        <v>6.4616599999999999E-4</v>
+      </c>
+      <c r="G185">
+        <v>2.7914300000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B186">
+        <v>1.4746699999999999</v>
+      </c>
+      <c r="C186">
+        <v>-6.2495700000000003</v>
+      </c>
+      <c r="D186">
+        <v>7.72424</v>
+      </c>
+      <c r="E186">
+        <v>6.2532899999999998</v>
+      </c>
+      <c r="F186">
+        <v>6.4840299999999998E-4</v>
+      </c>
+      <c r="G186">
+        <v>2.7927599999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B187">
+        <v>1.4780199999999999</v>
+      </c>
+      <c r="C187">
+        <v>-6.2495700000000003</v>
+      </c>
+      <c r="D187">
+        <v>7.7275900000000002</v>
+      </c>
+      <c r="E187">
+        <v>6.25406</v>
+      </c>
+      <c r="F187">
+        <v>6.5140800000000002E-4</v>
+      </c>
+      <c r="G187">
+        <v>2.7948</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B188">
+        <v>1.4834700000000001</v>
+      </c>
+      <c r="C188">
+        <v>-6.2496</v>
+      </c>
+      <c r="D188">
+        <v>7.73306</v>
+      </c>
+      <c r="E188">
+        <v>6.2552899999999996</v>
+      </c>
+      <c r="F188">
+        <v>6.5629800000000004E-4</v>
+      </c>
+      <c r="G188">
+        <v>2.7981699999999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B189">
+        <v>1.49346</v>
+      </c>
+      <c r="C189">
+        <v>-6.2497100000000003</v>
+      </c>
+      <c r="D189">
+        <v>7.7431700000000001</v>
+      </c>
+      <c r="E189">
+        <v>6.2575200000000004</v>
+      </c>
+      <c r="F189">
+        <v>6.6656300000000001E-4</v>
+      </c>
+      <c r="G189">
+        <v>2.8043800000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B190">
+        <v>1.51675</v>
+      </c>
+      <c r="C190">
+        <v>-6.2501699999999998</v>
+      </c>
+      <c r="D190">
+        <v>7.7669199999999998</v>
+      </c>
+      <c r="E190">
+        <v>6.2627899999999999</v>
+      </c>
+      <c r="F190">
+        <v>6.9035199999999998E-4</v>
+      </c>
+      <c r="G190">
+        <v>2.8189500000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B191">
+        <v>1.6325700000000001</v>
+      </c>
+      <c r="C191">
+        <v>-6.2530999999999999</v>
+      </c>
+      <c r="D191">
+        <v>7.8856799999999998</v>
+      </c>
+      <c r="E191">
+        <v>6.2899099999999999</v>
+      </c>
+      <c r="F191">
+        <v>8.2928799999999997E-4</v>
+      </c>
+      <c r="G191">
+        <v>2.8919999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>203</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>-2.2644000000000002</v>
+      </c>
+      <c r="D193">
+        <v>2.2644000000000002</v>
+      </c>
+      <c r="E193">
+        <v>9.4016300000000008</v>
+      </c>
+      <c r="F193">
+        <v>7.30643E-4</v>
+      </c>
+      <c r="G193">
+        <v>2.0621</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>-2.26498</v>
+      </c>
+      <c r="D194">
+        <v>2.26498</v>
+      </c>
+      <c r="E194">
+        <v>9.2763600000000004</v>
+      </c>
+      <c r="F194">
+        <v>7.1992300000000003E-4</v>
+      </c>
+      <c r="G194">
+        <v>2.0472199999999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>-2.2658299999999998</v>
+      </c>
+      <c r="D195">
+        <v>2.2658299999999998</v>
+      </c>
+      <c r="E195">
+        <v>9.0923200000000008</v>
+      </c>
+      <c r="F195">
+        <v>7.0549700000000003E-4</v>
+      </c>
+      <c r="G195">
+        <v>2.02549</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>-2.2671000000000001</v>
+      </c>
+      <c r="D196">
+        <v>2.2671000000000001</v>
+      </c>
+      <c r="E196">
+        <v>8.8077500000000004</v>
+      </c>
+      <c r="F196">
+        <v>7.0805599999999998E-4</v>
+      </c>
+      <c r="G196">
+        <v>1.9922800000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>-2.26919</v>
+      </c>
+      <c r="D197">
+        <v>2.26919</v>
+      </c>
+      <c r="E197">
+        <v>8.3541600000000003</v>
+      </c>
+      <c r="F197">
+        <v>7.0934600000000002E-4</v>
+      </c>
+      <c r="G197">
+        <v>1.94025</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>-2.2730199999999998</v>
+      </c>
+      <c r="D198">
+        <v>2.2730199999999998</v>
+      </c>
+      <c r="E198">
+        <v>7.6022999999999996</v>
+      </c>
+      <c r="F198">
+        <v>7.2128999999999997E-4</v>
+      </c>
+      <c r="G198">
+        <v>1.8568</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>-2.2820200000000002</v>
+      </c>
+      <c r="D199">
+        <v>2.2820200000000002</v>
+      </c>
+      <c r="E199">
+        <v>6.30959</v>
+      </c>
+      <c r="F199">
+        <v>7.3709899999999996E-4</v>
+      </c>
+      <c r="G199">
+        <v>1.7198100000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>-2.3269099999999998</v>
+      </c>
+      <c r="D200">
+        <v>2.3269099999999998</v>
+      </c>
+      <c r="E200">
+        <v>3.74322</v>
+      </c>
+      <c r="F200">
+        <v>7.9367200000000004E-4</v>
+      </c>
+      <c r="G200">
+        <v>1.4528700000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A65:J65"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/24V_150W_100kHz_CCM/24V_150W_100kHz_CCM_Parameter_Calculator.xlsx
+++ b/24V_150W_100kHz_CCM/24V_150W_100kHz_CCM_Parameter_Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\Desktop\150W-24V-Flyback-Converter-in-CCM\24V_150W_100kHz_CCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F07B1A9-5CCA-4E34-9FBB-E2E20AE4B2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82D7CA2-D575-4138-8661-868406A9679D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8511,6 +8511,50 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{58195D6E-58EF-430C-BABE-6889B9535670}">
+          <x14:colorSeries rgb="FF0070C0"/>
+          <x14:colorNegative rgb="FF000000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF000000"/>
+          <x14:colorFirst rgb="FF000000"/>
+          <x14:colorLast rgb="FF000000"/>
+          <x14:colorHigh rgb="FF000000"/>
+          <x14:colorLow rgb="FF000000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A49:A49</xm:f>
+              <xm:sqref>E49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A50:A50</xm:f>
+              <xm:sqref>E50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A51:A51</xm:f>
+              <xm:sqref>E51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A52:A52</xm:f>
+              <xm:sqref>E52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A53:A53</xm:f>
+              <xm:sqref>E53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A54:A54</xm:f>
+              <xm:sqref>E54</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A55:A55</xm:f>
+              <xm:sqref>E55</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'core and copper loss - N27'!A56:A56</xm:f>
+              <xm:sqref>E56</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{85896027-3454-42C8-BCD4-E7B98CDAB80D}">
           <x14:colorSeries rgb="FF0070C0"/>
           <x14:colorNegative rgb="FF000000"/>
@@ -8555,50 +8599,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{58195D6E-58EF-430C-BABE-6889B9535670}">
-          <x14:colorSeries rgb="FF0070C0"/>
-          <x14:colorNegative rgb="FF000000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF000000"/>
-          <x14:colorFirst rgb="FF000000"/>
-          <x14:colorLast rgb="FF000000"/>
-          <x14:colorHigh rgb="FF000000"/>
-          <x14:colorLow rgb="FF000000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A49:A49</xm:f>
-              <xm:sqref>E49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A50:A50</xm:f>
-              <xm:sqref>E50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A51:A51</xm:f>
-              <xm:sqref>E51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A52:A52</xm:f>
-              <xm:sqref>E52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A53:A53</xm:f>
-              <xm:sqref>E53</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A54:A54</xm:f>
-              <xm:sqref>E54</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A55:A55</xm:f>
-              <xm:sqref>E55</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'core and copper loss - N27'!A56:A56</xm:f>
-              <xm:sqref>E56</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -8640,8 +8640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC23FCA-E224-45E5-80F2-8CA49C5C45B4}">
   <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G193" sqref="G193"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
